--- a/scripts/e2j/verse-data.xlsx
+++ b/scripts/e2j/verse-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DailyWordBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DailyWordBot\scripts\e2j\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,12 +32,6 @@
     <t>Matt</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F2KMYwBRngU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=1&amp;t=296s&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DmY9AHaOMEI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=2&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Matthew 3
 Matthew 4:1-11</t>
   </si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>Mark</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XJVVDqQx3w0&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=3&amp;t=2s&amp;pp=iAQB</t>
   </si>
   <si>
     <t>Mark 4-5</t>
@@ -113,9 +104,6 @@
     <t>Luke</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=miPvZcX811M&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=4&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Luke 3
 Luke 4:1-15</t>
   </si>
@@ -152,12 +140,6 @@
     <t>John</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=XFXTBYMFrYI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=5&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WCyTlWUthw4&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=6&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>John 5-7</t>
   </si>
   <si>
@@ -179,12 +161,6 @@
   </si>
   <si>
     <t>Acts</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2Z-Hwn_OEpo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=7&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HZm6pk8cGZA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=8&amp;pp=iAQB</t>
   </si>
   <si>
     <t>Acts 5-7
@@ -208,12 +184,6 @@
     <t>Acts, James</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hQjB5nttZLw&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=25&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AcMqdZ564rk&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=26&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>James 3:13-18
 James 4-5</t>
   </si>
@@ -230,12 +200,6 @@
     <t>Gal</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dCPYlU_XAfI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=13&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wlAcBE-3BlQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=14&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Gal. 3, 4</t>
   </si>
   <si>
@@ -251,12 +215,6 @@
     <t>Phil</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OEMr3lNzMDs&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=16&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uj6VvtIQBIU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=17&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Phil. 3, 4</t>
   </si>
   <si>
@@ -269,12 +227,6 @@
     <t>1 Thess</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Q9TObF2wTCQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=19&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zcPZWRPdsrQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=20&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 Thess. 4, 5</t>
   </si>
   <si>
@@ -293,12 +245,6 @@
     <t>1 Cor</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EyVF6rrQAPE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=11&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iis8b_nCYyE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=12&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 Cor. 5-7</t>
   </si>
   <si>
@@ -335,9 +281,6 @@
     <t>Eph</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lq7mT9Vo9Ls&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=15&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Eph. 4-6</t>
   </si>
   <si>
@@ -347,12 +290,6 @@
     <t>Rom</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OpXQbCnMWgA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=9&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TiCXzATXLmo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=10&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Rom. 3:21–7:25</t>
   </si>
   <si>
@@ -380,9 +317,6 @@
     <t>Col</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=2XCX__pCeOI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=18&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Col. 3:5–4:18</t>
   </si>
   <si>
@@ -392,12 +326,6 @@
     <t>Heb</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=kmUXH0_rQuQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=23&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NrW4pWjUzRQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=24&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Heb. 3:1–4:13</t>
   </si>
   <si>
@@ -416,12 +344,6 @@
     <t>Titus</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0j0ovlLp4SU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=21&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iljyisQNcVM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=22&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Philemon</t>
   </si>
   <si>
@@ -449,12 +371,6 @@
     <t>1 Pet</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=d8dBDPa9uvQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=27&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qJyTe0NZNVY&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=28&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 Pet. 2:11–4:11</t>
   </si>
   <si>
@@ -473,12 +389,6 @@
     <t>1 John</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5jPlZjNwZhM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=30&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PtNC9c4jTBM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=31&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 John 3-5</t>
   </si>
   <si>
@@ -491,36 +401,12 @@
     <t>Jude</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5iyll9XfNKA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=32&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Gen. 1:1-4</t>
   </si>
   <si>
     <t>OV OT, Genesis</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3y7nN4TVX5Y&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=1&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TdKe0NNHWmY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=2&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3FQhzYaVk6k&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=3&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5DsSO1pM-fE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=4&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n2t1p7Zfm2s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=5&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K26US7y8TyQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=6&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xk7vBiRlzeA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=7&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Gen. 5:1-8</t>
   </si>
   <si>
@@ -542,12 +428,6 @@
     <t>OV OT, Genesis, Job</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mBSKwuVUOfs&amp;pp=ygUkZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9i</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XWcWYdo7hXA&amp;pp=ygUkZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9i</t>
-  </si>
-  <si>
     <t>Job 2:1-5</t>
   </si>
   <si>
@@ -611,12 +491,6 @@
     <t>Exd</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=S5cEpDlOP9A&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jiNKP3GlPi4&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz</t>
-  </si>
-  <si>
     <t>Exd. 5:1-8</t>
   </si>
   <si>
@@ -1653,6 +1527,132 @@
   </si>
   <si>
     <t>Rev. 21, 22</t>
+  </si>
+  <si>
+    <t>Matthew Lecture 1;https://www.youtube.com/watch?v=F2KMYwBRngU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=1&amp;t=296s&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Matthew Lecture 2;https://www.youtube.com/watch?v=DmY9AHaOMEI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=2&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Mark Lecture;https://www.youtube.com/watch?v=XJVVDqQx3w0&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=3&amp;t=2s&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Luke Lecture;https://www.youtube.com/watch?v=miPvZcX811M&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=4&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>John Lecture 1;https://www.youtube.com/watch?v=XFXTBYMFrYI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=5&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>John Lecture 2;https://www.youtube.com/watch?v=WCyTlWUthw4&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=6&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Acts Lecture 1;https://www.youtube.com/watch?v=2Z-Hwn_OEpo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=7&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Acts Lecture 2;https://www.youtube.com/watch?v=HZm6pk8cGZA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=8&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>James Lecture 1;https://www.youtube.com/watch?v=hQjB5nttZLw&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=25&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>James Lecture 2;https://www.youtube.com/watch?v=AcMqdZ564rk&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=26&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Galatians Lecture 1;https://www.youtube.com/watch?v=dCPYlU_XAfI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=13&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Galatians Lecture 2;https://www.youtube.com/watch?v=wlAcBE-3BlQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=14&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Philippians &amp; Philemon Lecture 1;https://www.youtube.com/watch?v=OEMr3lNzMDs&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=16&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Philippians &amp; Philemon Lecture 2;https://www.youtube.com/watch?v=uj6VvtIQBIU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=17&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Thessalonians Lecture 1;https://www.youtube.com/watch?v=Q9TObF2wTCQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=19&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Thessalonians Lecture 2;https://www.youtube.com/watch?v=zcPZWRPdsrQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=20&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Corinthians Lecture 1;https://www.youtube.com/watch?v=EyVF6rrQAPE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=11&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Corinthians Lecture 2;https://www.youtube.com/watch?v=iis8b_nCYyE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=12&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Ephesians Lecture 1;https://www.youtube.com/watch?v=lq7mT9Vo9Ls&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=15&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Romans Lecture 1;https://www.youtube.com/watch?v=OpXQbCnMWgA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=9&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Romans Lecture 2;https://www.youtube.com/watch?v=TiCXzATXLmo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=10&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Colossians Lecture 1;https://www.youtube.com/watch?v=2XCX__pCeOI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=18&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Hebrews Lecture 1;https://www.youtube.com/watch?v=kmUXH0_rQuQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=23&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Hebrews Lecture 2;https://www.youtube.com/watch?v=NrW4pWjUzRQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=24&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Timothy &amp; Titus Lecture 1;https://www.youtube.com/watch?v=0j0ovlLp4SU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=21&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Timothy &amp; Titus Lecture 2;https://www.youtube.com/watch?v=iljyisQNcVM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=22&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Peter Lecture 1;https://www.youtube.com/watch?v=d8dBDPa9uvQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=27&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Peter Lecture 2;https://www.youtube.com/watch?v=qJyTe0NZNVY&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=28&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Letters of John Lecture 1;https://www.youtube.com/watch?v=5jPlZjNwZhM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=30&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Letters of John Lecture 2;https://www.youtube.com/watch?v=PtNC9c4jTBM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=31&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Jude Lecture;https://www.youtube.com/watch?v=5iyll9XfNKA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=32&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Old Testament Overview Lecture;https://www.youtube.com/watch?v=3y7nN4TVX5Y&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=1&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 1;https://www.youtube.com/watch?v=TdKe0NNHWmY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=2&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 2;https://www.youtube.com/watch?v=3FQhzYaVk6k&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=3&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 3;https://www.youtube.com/watch?v=5DsSO1pM-fE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=4&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 4;https://www.youtube.com/watch?v=n2t1p7Zfm2s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=5&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 5;https://www.youtube.com/watch?v=n2t1p7Zfm2s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=5&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Genesis Lecture 6;https://www.youtube.com/watch?v=Xk7vBiRlzeA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=7&amp;pp=iAQB</t>
+  </si>
+  <si>
+    <t>Job Lecture 1;https://www.youtube.com/watch?v=mBSKwuVUOfs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=28</t>
+  </si>
+  <si>
+    <t>Job Lecture 2;https://www.youtube.com/watch?v=XWcWYdo7hXA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=29</t>
+  </si>
+  <si>
+    <t>Exodus Lecture 1;https://www.youtube.com/watch?v=S5cEpDlOP9A&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=8</t>
+  </si>
+  <si>
+    <t>Exodus Lecture 2;https://www.youtube.com/watch?v=jiNKP3GlPi4&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=9</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1760,12 +1760,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1773,6 +1767,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1971,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,23 +2000,23 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
+      <c r="E1" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="G1" s="6"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>45425</v>
@@ -2030,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -2042,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>45426</v>
@@ -2051,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -2063,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>45427</v>
@@ -2072,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -2084,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>45428</v>
@@ -2093,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -2105,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>45429</v>
@@ -2114,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -2126,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>45430</v>
@@ -2135,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G7" s="6"/>
       <c r="N7" s="6"/>
@@ -2148,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>45431</v>
@@ -2157,10 +2152,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -2169,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>45432</v>
@@ -2178,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -2190,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>45433</v>
@@ -2199,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -2211,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>45434</v>
@@ -2220,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2</v>
+        <v>491</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>3</v>
+        <v>492</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -2232,16 +2227,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>45435</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -2250,16 +2245,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>45436</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -2268,16 +2263,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>45437</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -2286,16 +2281,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>45438</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -2304,16 +2299,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>45439</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -2322,16 +2317,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>45440</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F17" s="6"/>
     </row>
@@ -2340,16 +2335,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>45441</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="F18" s="6"/>
     </row>
@@ -2358,16 +2353,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>45442</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -2376,16 +2371,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>45443</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F20" s="6"/>
     </row>
@@ -2394,16 +2389,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>45444</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -2412,16 +2407,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>45445</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -2430,16 +2425,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>45446</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F23" s="6"/>
     </row>
@@ -2448,16 +2443,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>45447</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -2466,16 +2461,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>45448</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -2483,17 +2478,17 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>32</v>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>45449</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>494</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -2501,20 +2496,20 @@
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>33</v>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>45450</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -2522,20 +2517,20 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>37</v>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>45451</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="G28" s="6"/>
     </row>
@@ -2544,19 +2539,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>45452</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="G29" s="6"/>
     </row>
@@ -2565,19 +2560,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>45453</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="G30" s="6"/>
     </row>
@@ -2586,19 +2581,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>45454</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="G31" s="6"/>
     </row>
@@ -2607,40 +2602,40 @@
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>45455</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>496</v>
       </c>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>45456</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="G33" s="6"/>
     </row>
@@ -2649,19 +2644,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
         <v>45457</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G34" s="6"/>
     </row>
@@ -2670,19 +2665,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>45458</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -2691,46 +2686,46 @@
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <v>45459</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <v>45460</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>52</v>
+        <v>498</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -2739,19 +2734,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <v>45461</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>499</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>500</v>
       </c>
       <c r="G38" s="6"/>
     </row>
@@ -2759,41 +2754,41 @@
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>55</v>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C39" s="1">
         <v>45462</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>56</v>
+      <c r="B40" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>45463</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="G40" s="6"/>
     </row>
@@ -2801,20 +2796,20 @@
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>60</v>
+      <c r="B41" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <v>45464</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
       <c r="G41" s="6"/>
     </row>
@@ -2822,20 +2817,20 @@
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>61</v>
+      <c r="B42" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <v>45465</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -2843,41 +2838,41 @@
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>62</v>
+      <c r="B43" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <v>45466</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>63</v>
+      <c r="B44" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C44" s="1">
         <v>45467</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -2885,20 +2880,20 @@
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>67</v>
+      <c r="B45" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="1">
         <v>45468</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>503</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>66</v>
+        <v>504</v>
       </c>
       <c r="G45" s="6"/>
     </row>
@@ -2907,19 +2902,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1">
         <v>45469</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G46" s="6"/>
     </row>
@@ -2927,20 +2922,20 @@
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>69</v>
+      <c r="B47" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C47" s="1">
         <v>45470</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="G47" s="6"/>
     </row>
@@ -2948,20 +2943,20 @@
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>73</v>
+      <c r="B48" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C48" s="1">
         <v>45471</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>505</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="G48" s="6"/>
     </row>
@@ -2969,20 +2964,20 @@
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>74</v>
+      <c r="B49" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="1">
         <v>45472</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>505</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
+        <v>506</v>
       </c>
       <c r="G49" s="6"/>
     </row>
@@ -2990,20 +2985,20 @@
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>76</v>
+      <c r="B50" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="1">
         <v>45473</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G50" s="6"/>
     </row>
@@ -3011,20 +3006,20 @@
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>77</v>
+      <c r="B51" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="1">
         <v>45474</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="G51" s="6"/>
     </row>
@@ -3032,20 +3027,20 @@
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>81</v>
+      <c r="B52" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C52" s="1">
         <v>45475</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G52" s="6"/>
     </row>
@@ -3053,20 +3048,20 @@
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>82</v>
+      <c r="B53" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="1">
         <v>45476</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G53" s="6"/>
     </row>
@@ -3074,20 +3069,20 @@
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>83</v>
+      <c r="B54" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C54" s="1">
         <v>45477</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G54" s="6"/>
     </row>
@@ -3095,20 +3090,20 @@
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>84</v>
+      <c r="B55" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C55" s="1">
         <v>45478</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G55" s="6"/>
     </row>
@@ -3116,20 +3111,20 @@
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>85</v>
+      <c r="B56" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C56" s="1">
         <v>45479</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G56" s="6"/>
     </row>
@@ -3137,20 +3132,20 @@
       <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>87</v>
+      <c r="B57" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C57" s="1">
         <v>45480</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G57" s="6"/>
     </row>
@@ -3158,20 +3153,20 @@
       <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>88</v>
+      <c r="B58" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="1">
         <v>45481</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G58" s="6"/>
     </row>
@@ -3179,20 +3174,20 @@
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>89</v>
+      <c r="B59" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="1">
         <v>45482</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="G59" s="6"/>
     </row>
@@ -3200,20 +3195,20 @@
       <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>90</v>
+      <c r="B60" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="1">
         <v>45483</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G60" s="6"/>
     </row>
@@ -3221,17 +3216,17 @@
       <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>91</v>
+      <c r="B61" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C61" s="1">
         <v>45484</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>509</v>
       </c>
       <c r="F61" s="6"/>
     </row>
@@ -3239,17 +3234,17 @@
       <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>94</v>
+      <c r="B62" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C62" s="1">
         <v>45485</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>509</v>
       </c>
       <c r="F62" s="6"/>
     </row>
@@ -3257,20 +3252,20 @@
       <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>95</v>
+      <c r="B63" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C63" s="1">
         <v>45486</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>511</v>
       </c>
       <c r="G63" s="6"/>
     </row>
@@ -3278,20 +3273,20 @@
       <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>99</v>
+      <c r="B64" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C64" s="1">
         <v>45487</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="G64" s="6"/>
     </row>
@@ -3299,20 +3294,20 @@
       <c r="A65">
         <v>65</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>100</v>
+      <c r="B65" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C65" s="1">
         <v>45488</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="G65" s="6"/>
     </row>
@@ -3320,20 +3315,20 @@
       <c r="A66">
         <v>66</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>101</v>
+      <c r="B66" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C66" s="1">
         <v>45489</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -3341,20 +3336,20 @@
       <c r="A67">
         <v>67</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>102</v>
+      <c r="B67" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C67" s="1">
         <v>45490</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>510</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="G67" s="6"/>
     </row>
@@ -3362,20 +3357,20 @@
       <c r="A68">
         <v>68</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>103</v>
+      <c r="B68" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C68" s="1">
         <v>45491</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -3383,20 +3378,20 @@
       <c r="A69">
         <v>69</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>104</v>
+      <c r="B69" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C69" s="1">
         <v>45492</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -3404,20 +3399,20 @@
       <c r="A70">
         <v>70</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>105</v>
+      <c r="B70" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C70" s="1">
         <v>45493</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>497</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -3425,17 +3420,17 @@
       <c r="A71">
         <v>71</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>106</v>
+      <c r="B71" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>45494</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="F71" s="6"/>
     </row>
@@ -3443,17 +3438,17 @@
       <c r="A72">
         <v>72</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>109</v>
+      <c r="B72" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C72" s="1">
         <v>45495</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="F72" s="6"/>
     </row>
@@ -3461,20 +3456,20 @@
       <c r="A73">
         <v>73</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>110</v>
+      <c r="B73" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C73" s="1">
         <v>45496</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>514</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -3482,20 +3477,20 @@
       <c r="A74">
         <v>74</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>114</v>
+      <c r="B74" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C74" s="1">
         <v>45497</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -3503,20 +3498,20 @@
       <c r="A75">
         <v>75</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>115</v>
+      <c r="B75" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C75" s="1">
         <v>45498</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -3524,20 +3519,20 @@
       <c r="A76">
         <v>76</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>116</v>
+      <c r="B76" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C76" s="1">
         <v>45499</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -3545,20 +3540,20 @@
       <c r="A77">
         <v>77</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>117</v>
+      <c r="B77" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C77" s="1">
         <v>45500</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>513</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="G77" s="6"/>
     </row>
@@ -3566,20 +3561,20 @@
       <c r="A78">
         <v>78</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>118</v>
+      <c r="B78" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C78" s="1">
         <v>45501</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>121</v>
+        <v>95</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>516</v>
       </c>
       <c r="G78" s="6"/>
     </row>
@@ -3587,20 +3582,20 @@
       <c r="A79">
         <v>79</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>122</v>
+      <c r="B79" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C79" s="1">
         <v>45502</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>503</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>66</v>
+        <v>504</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -3608,20 +3603,20 @@
       <c r="A80">
         <v>80</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>123</v>
+      <c r="B80" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C80" s="1">
         <v>45503</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -3629,20 +3624,20 @@
       <c r="A81">
         <v>81</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>125</v>
+      <c r="B81" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C81" s="1">
         <v>45504</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -3650,20 +3645,20 @@
       <c r="A82">
         <v>82</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>126</v>
+      <c r="B82" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C82" s="1">
         <v>45505</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -3671,20 +3666,20 @@
       <c r="A83">
         <v>83</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>128</v>
+      <c r="B83" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C83" s="1">
         <v>45506</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>515</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>121</v>
+        <v>516</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -3692,20 +3687,20 @@
       <c r="A84">
         <v>84</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>129</v>
+      <c r="B84" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C84" s="1">
         <v>45507</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>518</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -3713,20 +3708,20 @@
       <c r="A85">
         <v>85</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>133</v>
+      <c r="B85" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C85" s="1">
         <v>45508</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>132</v>
+        <v>518</v>
       </c>
       <c r="G85" s="6"/>
     </row>
@@ -3734,20 +3729,20 @@
       <c r="A86">
         <v>86</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>134</v>
+      <c r="B86" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C86" s="1">
         <v>45509</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>132</v>
+        <v>518</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -3755,20 +3750,20 @@
       <c r="A87">
         <v>87</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>135</v>
+      <c r="B87" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C87" s="1">
         <v>45510</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>132</v>
+        <v>518</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -3776,20 +3771,20 @@
       <c r="A88">
         <v>88</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>137</v>
+      <c r="B88" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C88" s="1">
         <v>45511</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>520</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -3797,20 +3792,20 @@
       <c r="A89">
         <v>89</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>141</v>
+      <c r="B89" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C89" s="1">
         <v>45512</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -3818,20 +3813,20 @@
       <c r="A90">
         <v>90</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>142</v>
+      <c r="B90" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C90" s="1">
         <v>45513</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -3839,20 +3834,20 @@
       <c r="A91">
         <v>91</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>143</v>
+      <c r="B91" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C91" s="1">
         <v>45514</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>139</v>
+        <v>519</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -3860,17 +3855,17 @@
       <c r="A92">
         <v>92</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>144</v>
+      <c r="B92" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C92" s="1">
         <v>45515</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>521</v>
       </c>
       <c r="F92" s="6"/>
     </row>
@@ -3879,34 +3874,34 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C93" s="1">
         <v>45516</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="L93" s="6"/>
     </row>
@@ -3915,34 +3910,34 @@
         <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C94" s="1">
         <v>45517</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L94" s="6"/>
     </row>
@@ -3951,34 +3946,34 @@
         <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C95" s="1">
         <v>45518</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L95" s="6"/>
     </row>
@@ -3987,34 +3982,34 @@
         <v>96</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C96" s="1">
         <v>45519</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L96" s="6"/>
     </row>
@@ -4023,34 +4018,34 @@
         <v>97</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C97" s="1">
         <v>45520</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L97" s="6"/>
     </row>
@@ -4059,34 +4054,34 @@
         <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C98" s="1">
         <v>45521</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L98" s="6"/>
     </row>
@@ -4095,40 +4090,40 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C99" s="1">
         <v>45522</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
@@ -4136,19 +4131,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C100" s="1">
         <v>45523</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -4157,19 +4152,19 @@
         <v>101</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C101" s="1">
         <v>45524</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -4178,19 +4173,19 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C102" s="1">
         <v>45525</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -4199,19 +4194,19 @@
         <v>103</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1">
         <v>45526</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -4220,19 +4215,19 @@
         <v>104</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C104" s="1">
         <v>45527</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G104" s="6"/>
     </row>
@@ -4241,19 +4236,19 @@
         <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C105" s="1">
         <v>45528</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -4262,19 +4257,19 @@
         <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="C106" s="1">
         <v>45529</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -4283,19 +4278,19 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C107" s="1">
         <v>45530</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -4304,19 +4299,19 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C108" s="1">
         <v>45531</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -4325,19 +4320,19 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C109" s="1">
         <v>45532</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>163</v>
+        <v>530</v>
       </c>
       <c r="G109" s="6"/>
     </row>
@@ -4346,34 +4341,34 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C110" s="1">
         <v>45533</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L110" s="6"/>
     </row>
@@ -4382,34 +4377,34 @@
         <v>111</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C111" s="1">
         <v>45534</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L111" s="6"/>
     </row>
@@ -4418,34 +4413,34 @@
         <v>112</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="C112" s="1">
         <v>45535</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L112" s="6"/>
     </row>
@@ -4454,34 +4449,34 @@
         <v>113</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C113" s="1">
         <v>45536</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L113" s="6"/>
     </row>
@@ -4490,34 +4485,34 @@
         <v>114</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C114" s="1">
         <v>45537</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L114" s="6"/>
     </row>
@@ -4526,34 +4521,34 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C115" s="1">
         <v>45538</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L115" s="6"/>
     </row>
@@ -4562,34 +4557,34 @@
         <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C116" s="1">
         <v>45539</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L116" s="6"/>
     </row>
@@ -4598,34 +4593,34 @@
         <v>117</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C117" s="1">
         <v>45540</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>148</v>
+        <v>522</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>152</v>
+        <v>526</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>153</v>
+        <v>527</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>154</v>
+        <v>528</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -4634,19 +4629,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C118" s="1">
         <v>45541</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>186</v>
+        <v>144</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -4655,19 +4650,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="C119" s="1">
         <v>45542</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -4676,19 +4671,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="C120" s="1">
         <v>45543</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -4697,19 +4692,19 @@
         <v>121</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C121" s="1">
         <v>45544</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -4718,19 +4713,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C122" s="1">
         <v>45545</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G122" s="6"/>
     </row>
@@ -4739,19 +4734,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C123" s="1">
         <v>45546</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G123" s="6"/>
     </row>
@@ -4760,19 +4755,19 @@
         <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C124" s="1">
         <v>45547</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -4781,19 +4776,19 @@
         <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="C125" s="1">
         <v>45548</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -4802,19 +4797,19 @@
         <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C126" s="1">
         <v>45549</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -4823,19 +4818,19 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C127" s="1">
         <v>45550</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>185</v>
+        <v>531</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>186</v>
+        <v>532</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -4844,25 +4839,25 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C128" s="1">
         <v>45551</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="I128" s="6"/>
     </row>
@@ -4871,19 +4866,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C129" s="1">
         <v>45552</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G129" s="6"/>
     </row>
@@ -4892,19 +4887,19 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C130" s="1">
         <v>45553</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G130" s="6"/>
     </row>
@@ -4913,19 +4908,19 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C131" s="1">
         <v>45554</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G131" s="6"/>
     </row>
@@ -4934,19 +4929,19 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="C132" s="1">
         <v>45555</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G132" s="6"/>
     </row>
@@ -4955,19 +4950,19 @@
         <v>133</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C133" s="1">
         <v>45556</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G133" s="6"/>
     </row>
@@ -4976,19 +4971,19 @@
         <v>134</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C134" s="1">
         <v>45557</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G134" s="6"/>
     </row>
@@ -4997,19 +4992,19 @@
         <v>135</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C135" s="1">
         <v>45558</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="G135" s="6"/>
     </row>
@@ -5018,19 +5013,19 @@
         <v>136</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C136" s="1">
         <v>45559</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G136" s="6"/>
     </row>
@@ -5039,19 +5034,19 @@
         <v>137</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="C137" s="1">
         <v>45560</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G137" s="6"/>
     </row>
@@ -5060,19 +5055,19 @@
         <v>138</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="C138" s="1">
         <v>45561</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G138" s="6"/>
     </row>
@@ -5081,19 +5076,19 @@
         <v>139</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C139" s="1">
         <v>45562</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G139" s="6"/>
     </row>
@@ -5102,19 +5097,19 @@
         <v>140</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C140" s="1">
         <v>45563</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G140" s="6"/>
     </row>
@@ -5123,19 +5118,19 @@
         <v>141</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C141" s="1">
         <v>45564</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G141" s="6"/>
     </row>
@@ -5144,19 +5139,19 @@
         <v>142</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C142" s="1">
         <v>45565</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G142" s="6"/>
     </row>
@@ -5165,19 +5160,19 @@
         <v>143</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="C143" s="1">
         <v>45566</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G143" s="6"/>
     </row>
@@ -5186,19 +5181,19 @@
         <v>144</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C144" s="1">
         <v>45567</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G144" s="6"/>
     </row>
@@ -5207,19 +5202,19 @@
         <v>145</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C145" s="1">
         <v>45568</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G145" s="6"/>
     </row>
@@ -5228,19 +5223,19 @@
         <v>146</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C146" s="1">
         <v>45569</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G146" s="6"/>
     </row>
@@ -5249,19 +5244,19 @@
         <v>147</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C147" s="1">
         <v>45570</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G147" s="6"/>
     </row>
@@ -5270,19 +5265,19 @@
         <v>148</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C148" s="1">
         <v>45571</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G148" s="6"/>
     </row>
@@ -5291,19 +5286,19 @@
         <v>149</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C149" s="1">
         <v>45572</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G149" s="6"/>
     </row>
@@ -5312,19 +5307,19 @@
         <v>150</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C150" s="1">
         <v>45573</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G150" s="6"/>
     </row>
@@ -5333,19 +5328,19 @@
         <v>151</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C151" s="1">
         <v>45574</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G151" s="6"/>
     </row>
@@ -5354,19 +5349,19 @@
         <v>152</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="C152" s="1">
         <v>45575</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G152" s="6"/>
     </row>
@@ -5375,25 +5370,25 @@
         <v>153</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="C153" s="1">
         <v>45576</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="I153" s="6"/>
     </row>
@@ -5402,19 +5397,19 @@
         <v>154</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C154" s="1">
         <v>45577</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G154" s="6"/>
     </row>
@@ -5423,19 +5418,19 @@
         <v>155</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C155" s="1">
         <v>45578</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G155" s="6"/>
     </row>
@@ -5444,19 +5439,19 @@
         <v>156</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="C156" s="1">
         <v>45579</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G156" s="6"/>
     </row>
@@ -5465,19 +5460,19 @@
         <v>157</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C157" s="1">
         <v>45580</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G157" s="6"/>
     </row>
@@ -5486,19 +5481,19 @@
         <v>158</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C158" s="1">
         <v>45581</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G158" s="6"/>
     </row>
@@ -5507,19 +5502,19 @@
         <v>159</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C159" s="1">
         <v>45582</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G159" s="6"/>
     </row>
@@ -5528,19 +5523,19 @@
         <v>160</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="C160" s="1">
         <v>45583</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G160" s="6"/>
     </row>
@@ -5549,19 +5544,19 @@
         <v>161</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C161" s="1">
         <v>45584</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G161" s="6"/>
     </row>
@@ -5570,19 +5565,19 @@
         <v>162</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="C162" s="1">
         <v>45585</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G162" s="6"/>
     </row>
@@ -5591,19 +5586,19 @@
         <v>163</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C163" s="1">
         <v>45586</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G163" s="6"/>
     </row>
@@ -5612,19 +5607,19 @@
         <v>164</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C164" s="1">
         <v>45587</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G164" s="6"/>
     </row>
@@ -5633,19 +5628,19 @@
         <v>165</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="C165" s="1">
         <v>45588</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="G165" s="6"/>
     </row>
@@ -5654,19 +5649,19 @@
         <v>166</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C166" s="1">
         <v>45589</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G166" s="6"/>
     </row>
@@ -5675,19 +5670,19 @@
         <v>167</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C167" s="1">
         <v>45590</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G167" s="6"/>
     </row>
@@ -5696,19 +5691,19 @@
         <v>168</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="C168" s="1">
         <v>45591</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G168" s="6"/>
     </row>
@@ -5717,19 +5712,19 @@
         <v>169</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C169" s="1">
         <v>45592</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G169" s="6"/>
     </row>
@@ -5738,19 +5733,19 @@
         <v>170</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="C170" s="1">
         <v>45593</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G170" s="6"/>
     </row>
@@ -5759,19 +5754,19 @@
         <v>171</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="C171" s="1">
         <v>45594</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G171" s="6"/>
     </row>
@@ -5780,19 +5775,19 @@
         <v>172</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C172" s="1">
         <v>45595</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G172" s="6"/>
     </row>
@@ -5801,19 +5796,19 @@
         <v>173</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C173" s="1">
         <v>45596</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G173" s="6"/>
     </row>
@@ -5822,19 +5817,19 @@
         <v>174</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="C174" s="1">
         <v>45597</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G174" s="6"/>
     </row>
@@ -5843,19 +5838,19 @@
         <v>175</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C175" s="1">
         <v>45598</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G175" s="6"/>
     </row>
@@ -5864,19 +5859,19 @@
         <v>176</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="C176" s="1">
         <v>45599</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G176" s="6"/>
     </row>
@@ -5885,19 +5880,19 @@
         <v>177</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="C177" s="1">
         <v>45600</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G177" s="6"/>
     </row>
@@ -5906,19 +5901,19 @@
         <v>178</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="C178" s="1">
         <v>45601</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G178" s="6"/>
     </row>
@@ -5927,19 +5922,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C179" s="1">
         <v>45602</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G179" s="6"/>
     </row>
@@ -5948,19 +5943,19 @@
         <v>180</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="C180" s="1">
         <v>45603</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G180" s="6"/>
     </row>
@@ -5969,19 +5964,19 @@
         <v>181</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C181" s="1">
         <v>45604</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G181" s="6"/>
     </row>
@@ -5990,19 +5985,19 @@
         <v>182</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="C182" s="1">
         <v>45605</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G182" s="6"/>
     </row>
@@ -6011,19 +6006,19 @@
         <v>183</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="C183" s="1">
         <v>45606</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G183" s="6"/>
     </row>
@@ -6032,19 +6027,19 @@
         <v>184</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="C184" s="1">
         <v>45607</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G184" s="6"/>
     </row>
@@ -6053,19 +6048,19 @@
         <v>185</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="C185" s="1">
         <v>45608</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="G185" s="6"/>
     </row>
@@ -6074,19 +6069,19 @@
         <v>186</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="C186" s="1">
         <v>45609</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G186" s="6"/>
     </row>
@@ -6095,19 +6090,19 @@
         <v>187</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="C187" s="1">
         <v>45610</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G187" s="6"/>
     </row>
@@ -6116,19 +6111,19 @@
         <v>188</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="C188" s="1">
         <v>45611</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G188" s="6"/>
     </row>
@@ -6137,19 +6132,19 @@
         <v>189</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="C189" s="1">
         <v>45612</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G189" s="6"/>
     </row>
@@ -6158,19 +6153,19 @@
         <v>190</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="C190" s="1">
         <v>45613</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G190" s="6"/>
     </row>
@@ -6179,19 +6174,19 @@
         <v>191</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C191" s="1">
         <v>45614</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G191" s="6"/>
     </row>
@@ -6200,19 +6195,19 @@
         <v>192</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="C192" s="1">
         <v>45615</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G192" s="6"/>
     </row>
@@ -6221,19 +6216,19 @@
         <v>193</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="C193" s="1">
         <v>45616</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G193" s="6"/>
     </row>
@@ -6242,19 +6237,19 @@
         <v>194</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="C194" s="1">
         <v>45617</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G194" s="6"/>
     </row>
@@ -6263,19 +6258,19 @@
         <v>195</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="C195" s="1">
         <v>45618</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G195" s="6"/>
     </row>
@@ -6284,19 +6279,19 @@
         <v>196</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C196" s="1">
         <v>45619</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G196" s="6"/>
     </row>
@@ -6305,19 +6300,19 @@
         <v>197</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="C197" s="1">
         <v>45620</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G197" s="6"/>
     </row>
@@ -6326,19 +6321,19 @@
         <v>198</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="C198" s="1">
         <v>45621</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G198" s="6"/>
     </row>
@@ -6347,19 +6342,19 @@
         <v>199</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="C199" s="1">
         <v>45622</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G199" s="6"/>
     </row>
@@ -6368,19 +6363,19 @@
         <v>200</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="C200" s="1">
         <v>45623</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G200" s="6"/>
     </row>
@@ -6389,19 +6384,19 @@
         <v>201</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="C201" s="1">
         <v>45624</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G201" s="6"/>
     </row>
@@ -6410,19 +6405,19 @@
         <v>202</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="C202" s="1">
         <v>45625</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G202" s="6"/>
     </row>
@@ -6431,19 +6426,19 @@
         <v>203</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="C203" s="1">
         <v>45626</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G203" s="6"/>
     </row>
@@ -6452,19 +6447,19 @@
         <v>204</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="C204" s="1">
         <v>45627</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G204" s="6"/>
     </row>
@@ -6473,19 +6468,19 @@
         <v>205</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="C205" s="1">
         <v>45628</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G205" s="6"/>
     </row>
@@ -6494,19 +6489,19 @@
         <v>206</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C206" s="1">
         <v>45629</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G206" s="6"/>
     </row>
@@ -6515,19 +6510,19 @@
         <v>207</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="C207" s="1">
         <v>45630</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G207" s="6"/>
     </row>
@@ -6536,19 +6531,19 @@
         <v>208</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="C208" s="1">
         <v>45631</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G208" s="6"/>
     </row>
@@ -6557,19 +6552,19 @@
         <v>209</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C209" s="1">
         <v>45632</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G209" s="6"/>
     </row>
@@ -6578,19 +6573,19 @@
         <v>210</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C210" s="1">
         <v>45633</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G210" s="6"/>
     </row>
@@ -6599,19 +6594,19 @@
         <v>211</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C211" s="1">
         <v>45634</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G211" s="6"/>
     </row>
@@ -6620,19 +6615,19 @@
         <v>212</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="C212" s="1">
         <v>45635</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G212" s="6"/>
     </row>
@@ -6641,19 +6636,19 @@
         <v>213</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C213" s="1">
         <v>45636</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G213" s="6"/>
     </row>
@@ -6662,19 +6657,19 @@
         <v>214</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="C214" s="1">
         <v>45637</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="G214" s="6"/>
     </row>
@@ -6683,16 +6678,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="C215" s="1">
         <v>45638</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F215" s="6"/>
     </row>
@@ -6701,16 +6696,16 @@
         <v>216</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="C216" s="1">
         <v>45639</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="F216" s="6"/>
     </row>
@@ -6719,19 +6714,19 @@
         <v>217</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="C217" s="1">
         <v>45640</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G217" s="6"/>
     </row>
@@ -6740,19 +6735,19 @@
         <v>218</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="C218" s="1">
         <v>45641</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G218" s="6"/>
     </row>
@@ -6761,16 +6756,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="C219" s="1">
         <v>45642</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F219" s="6"/>
     </row>
@@ -6779,16 +6774,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C220" s="1">
         <v>45643</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F220" s="6"/>
     </row>
@@ -6797,16 +6792,16 @@
         <v>221</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="C221" s="1">
         <v>45644</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F221" s="6"/>
     </row>
@@ -6815,19 +6810,19 @@
         <v>222</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="C222" s="1">
         <v>45645</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G222" s="6"/>
     </row>
@@ -6836,19 +6831,19 @@
         <v>223</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="C223" s="1">
         <v>45646</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G223" s="6"/>
     </row>
@@ -6857,19 +6852,19 @@
         <v>224</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="C224" s="1">
         <v>45647</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G224" s="6"/>
     </row>
@@ -6878,19 +6873,19 @@
         <v>225</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C225" s="1">
         <v>45648</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G225" s="6"/>
     </row>
@@ -6899,19 +6894,19 @@
         <v>226</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C226" s="1">
         <v>45649</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G226" s="6"/>
     </row>
@@ -6920,19 +6915,19 @@
         <v>227</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C227" s="1">
         <v>45650</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G227" s="6"/>
     </row>
@@ -6941,19 +6936,19 @@
         <v>228</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="C228" s="1">
         <v>45651</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G228" s="6"/>
     </row>
@@ -6962,16 +6957,16 @@
         <v>229</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="C229" s="1">
         <v>45652</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="F229" s="6"/>
     </row>
@@ -6980,22 +6975,22 @@
         <v>230</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="C230" s="1">
         <v>45653</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="H230" s="6"/>
     </row>
@@ -7004,16 +6999,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="C231" s="1">
         <v>45654</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F231" s="6"/>
     </row>
@@ -7022,16 +7017,16 @@
         <v>232</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="C232" s="1">
         <v>45655</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F232" s="6"/>
     </row>
@@ -7040,19 +7035,19 @@
         <v>233</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C233" s="1">
         <v>45656</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G233" s="6"/>
     </row>
@@ -7061,19 +7056,19 @@
         <v>234</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="C234" s="1">
         <v>45657</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G234" s="6"/>
     </row>
@@ -7082,19 +7077,19 @@
         <v>235</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="C235" s="1">
         <v>45658</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G235" s="6"/>
     </row>
@@ -7103,19 +7098,19 @@
         <v>236</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="C236" s="1">
         <v>45659</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G236" s="6"/>
     </row>
@@ -7124,19 +7119,19 @@
         <v>237</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="C237" s="1">
         <v>45660</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G237" s="6"/>
     </row>
@@ -7145,19 +7140,19 @@
         <v>238</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="C238" s="1">
         <v>45661</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G238" s="6"/>
     </row>
@@ -7166,19 +7161,19 @@
         <v>239</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="C239" s="1">
         <v>45662</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G239" s="6"/>
     </row>
@@ -7187,19 +7182,19 @@
         <v>240</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="C240" s="1">
         <v>45663</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G240" s="6"/>
     </row>
@@ -7208,19 +7203,19 @@
         <v>241</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="C241" s="1">
         <v>45664</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G241" s="6"/>
     </row>
@@ -7229,19 +7224,19 @@
         <v>242</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="C242" s="1">
         <v>45665</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G242" s="6"/>
     </row>
@@ -7250,19 +7245,19 @@
         <v>243</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="C243" s="1">
         <v>45666</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G243" s="6"/>
     </row>
@@ -7271,19 +7266,19 @@
         <v>244</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="C244" s="1">
         <v>45667</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G244" s="6"/>
     </row>
@@ -7292,19 +7287,19 @@
         <v>245</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="C245" s="1">
         <v>45668</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G245" s="6"/>
     </row>
@@ -7313,19 +7308,19 @@
         <v>246</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="C246" s="1">
         <v>45669</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G246" s="6"/>
     </row>
@@ -7334,19 +7329,19 @@
         <v>247</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="C247" s="1">
         <v>45670</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G247" s="6"/>
     </row>
@@ -7355,19 +7350,19 @@
         <v>248</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="C248" s="1">
         <v>45671</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G248" s="6"/>
     </row>
@@ -7376,19 +7371,19 @@
         <v>249</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="C249" s="1">
         <v>45672</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G249" s="6"/>
     </row>
@@ -7397,19 +7392,19 @@
         <v>250</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="C250" s="1">
         <v>45673</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G250" s="6"/>
     </row>
@@ -7418,19 +7413,19 @@
         <v>251</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="C251" s="1">
         <v>45674</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G251" s="6"/>
     </row>
@@ -7439,16 +7434,16 @@
         <v>252</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="C252" s="1">
         <v>45675</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F252" s="6"/>
     </row>
@@ -7457,16 +7452,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="C253" s="1">
         <v>45676</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F253" s="6"/>
     </row>
@@ -7475,16 +7470,16 @@
         <v>254</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="C254" s="1">
         <v>45677</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F254" s="6"/>
     </row>
@@ -7493,16 +7488,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="C255" s="1">
         <v>45678</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F255" s="6"/>
     </row>
@@ -7511,19 +7506,19 @@
         <v>256</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="C256" s="1">
         <v>45679</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G256" s="6"/>
     </row>
@@ -7532,19 +7527,19 @@
         <v>257</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="C257" s="1">
         <v>45680</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G257" s="6"/>
     </row>
@@ -7553,19 +7548,19 @@
         <v>258</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="C258" s="1">
         <v>45681</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G258" s="6"/>
     </row>
@@ -7574,19 +7569,19 @@
         <v>259</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="C259" s="1">
         <v>45682</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G259" s="6"/>
     </row>
@@ -7595,19 +7590,19 @@
         <v>260</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="C260" s="1">
         <v>45683</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G260" s="6"/>
     </row>
@@ -7616,19 +7611,19 @@
         <v>261</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="C261" s="1">
         <v>45684</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G261" s="6"/>
     </row>
@@ -7637,19 +7632,19 @@
         <v>262</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C262" s="1">
         <v>45685</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G262" s="6"/>
     </row>
@@ -7658,19 +7653,19 @@
         <v>263</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="C263" s="1">
         <v>45686</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G263" s="6"/>
     </row>
@@ -7679,16 +7674,16 @@
         <v>264</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="C264" s="1">
         <v>45687</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F264" s="6"/>
     </row>
@@ -7697,16 +7692,16 @@
         <v>265</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="C265" s="1">
         <v>45688</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F265" s="6"/>
     </row>
@@ -7715,16 +7710,16 @@
         <v>266</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="C266" s="1">
         <v>45689</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F266" s="6"/>
     </row>
@@ -7733,16 +7728,16 @@
         <v>267</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="C267" s="1">
         <v>45690</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F267" s="6"/>
     </row>
@@ -7751,16 +7746,16 @@
         <v>268</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="C268" s="1">
         <v>45691</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F268" s="6"/>
     </row>
@@ -7769,16 +7764,16 @@
         <v>269</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="C269" s="1">
         <v>45692</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F269" s="6"/>
     </row>
@@ -7787,16 +7782,16 @@
         <v>270</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="C270" s="1">
         <v>45693</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F270" s="6"/>
     </row>
@@ -7805,16 +7800,16 @@
         <v>271</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C271" s="1">
         <v>45694</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F271" s="6"/>
     </row>
@@ -7823,16 +7818,16 @@
         <v>272</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C272" s="1">
         <v>45695</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F272" s="6"/>
     </row>
@@ -7841,16 +7836,16 @@
         <v>273</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="C273" s="1">
         <v>45696</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F273" s="6"/>
     </row>
@@ -7859,19 +7854,19 @@
         <v>274</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="C274" s="1">
         <v>45697</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="G274" s="6"/>
     </row>
@@ -7880,16 +7875,16 @@
         <v>275</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="C275" s="1">
         <v>45698</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F275" s="6"/>
     </row>
@@ -7898,19 +7893,19 @@
         <v>276</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C276" s="1">
         <v>45699</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G276" s="6"/>
     </row>
@@ -7919,16 +7914,16 @@
         <v>277</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="C277" s="1">
         <v>45700</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F277" s="6"/>
     </row>
@@ -7937,16 +7932,16 @@
         <v>278</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="C278" s="1">
         <v>45701</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F278" s="6"/>
     </row>
@@ -7955,16 +7950,16 @@
         <v>279</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="C279" s="1">
         <v>45702</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F279" s="6"/>
     </row>
@@ -7973,19 +7968,19 @@
         <v>280</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="C280" s="1">
         <v>45703</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G280" s="6"/>
     </row>
@@ -7994,19 +7989,19 @@
         <v>281</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="C281" s="1">
         <v>45704</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G281" s="6"/>
     </row>
@@ -8015,19 +8010,19 @@
         <v>282</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="C282" s="1">
         <v>45705</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G282" s="6"/>
     </row>
@@ -8036,19 +8031,19 @@
         <v>283</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C283" s="1">
         <v>45706</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G283" s="6"/>
     </row>
@@ -8057,19 +8052,19 @@
         <v>284</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="C284" s="1">
         <v>45707</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G284" s="6"/>
     </row>
@@ -8078,19 +8073,19 @@
         <v>285</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="C285" s="1">
         <v>45708</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G285" s="6"/>
     </row>
@@ -8099,19 +8094,19 @@
         <v>286</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="C286" s="1">
         <v>45709</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G286" s="6"/>
     </row>
@@ -8120,19 +8115,19 @@
         <v>287</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="C287" s="1">
         <v>45710</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G287" s="6"/>
     </row>
@@ -8141,19 +8136,19 @@
         <v>288</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C288" s="1">
         <v>45711</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G288" s="6"/>
     </row>
@@ -8162,19 +8157,19 @@
         <v>289</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="C289" s="1">
         <v>45712</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G289" s="6"/>
     </row>
@@ -8183,19 +8178,19 @@
         <v>290</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="C290" s="1">
         <v>45713</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G290" s="6"/>
     </row>
@@ -8204,19 +8199,19 @@
         <v>291</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="C291" s="1">
         <v>45714</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G291" s="6"/>
     </row>
@@ -8225,19 +8220,19 @@
         <v>292</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="C292" s="1">
         <v>45715</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G292" s="6"/>
     </row>
@@ -8246,19 +8241,19 @@
         <v>293</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="C293" s="1">
         <v>45716</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G293" s="6"/>
     </row>
@@ -8267,19 +8262,19 @@
         <v>294</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="C294" s="1">
         <v>45717</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="G294" s="6"/>
     </row>
@@ -8288,16 +8283,16 @@
         <v>295</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="C295" s="1">
         <v>45718</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="F295" s="6"/>
     </row>
@@ -8306,16 +8301,16 @@
         <v>296</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="C296" s="1">
         <v>45719</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="F296" s="6"/>
     </row>
@@ -8324,16 +8319,16 @@
         <v>297</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="C297" s="1">
         <v>45720</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="F297" s="6"/>
     </row>
@@ -8342,16 +8337,16 @@
         <v>298</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C298" s="1">
         <v>45721</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="F298" s="6"/>
     </row>
@@ -8360,16 +8355,16 @@
         <v>299</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="C299" s="1">
         <v>45722</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="F299" s="6"/>
     </row>
@@ -8378,16 +8373,16 @@
         <v>300</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C300" s="1">
         <v>45723</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="F300" s="6"/>
     </row>
@@ -8396,16 +8391,16 @@
         <v>301</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C301" s="1">
         <v>45724</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="F301" s="6"/>
     </row>
@@ -8414,16 +8409,16 @@
         <v>302</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="C302" s="1">
         <v>45725</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F302" s="6"/>
     </row>
@@ -8432,16 +8427,16 @@
         <v>303</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="C303" s="1">
         <v>45726</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="F303" s="6"/>
     </row>
@@ -8450,19 +8445,19 @@
         <v>304</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="C304" s="1">
         <v>45727</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="G304" s="6"/>
     </row>
@@ -8471,19 +8466,19 @@
         <v>305</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="C305" s="1">
         <v>45728</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G305" s="6"/>
     </row>
@@ -8492,19 +8487,19 @@
         <v>306</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="C306" s="1">
         <v>45729</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G306" s="6"/>
     </row>
@@ -8513,19 +8508,19 @@
         <v>307</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C307" s="1">
         <v>45730</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G307" s="6"/>
     </row>
@@ -8534,19 +8529,19 @@
         <v>308</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="C308" s="1">
         <v>45731</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G308" s="6"/>
     </row>
@@ -8555,19 +8550,19 @@
         <v>309</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="C309" s="1">
         <v>45732</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G309" s="6"/>
     </row>
@@ -8576,19 +8571,19 @@
         <v>310</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="C310" s="1">
         <v>45733</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G310" s="6"/>
     </row>
@@ -8597,19 +8592,19 @@
         <v>311</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="C311" s="1">
         <v>45734</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G311" s="6"/>
     </row>
@@ -8618,19 +8613,19 @@
         <v>312</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="C312" s="1">
         <v>45735</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G312" s="6"/>
     </row>
@@ -8639,19 +8634,19 @@
         <v>313</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="C313" s="1">
         <v>45736</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G313" s="6"/>
     </row>
@@ -8660,19 +8655,19 @@
         <v>314</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="C314" s="1">
         <v>45737</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G314" s="6"/>
     </row>
@@ -8681,19 +8676,19 @@
         <v>315</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="C315" s="1">
         <v>45738</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G315" s="6"/>
     </row>
@@ -8702,19 +8697,19 @@
         <v>316</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="C316" s="1">
         <v>45739</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G316" s="6"/>
     </row>
@@ -8723,19 +8718,19 @@
         <v>317</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="C317" s="1">
         <v>45740</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G317" s="6"/>
     </row>
@@ -8744,19 +8739,19 @@
         <v>318</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="C318" s="1">
         <v>45741</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G318" s="6"/>
     </row>
@@ -8765,19 +8760,19 @@
         <v>319</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="C319" s="1">
         <v>45742</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G319" s="6"/>
     </row>
@@ -8786,22 +8781,22 @@
         <v>320</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C320" s="1">
         <v>45743</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="H320" s="6"/>
     </row>
@@ -8810,16 +8805,16 @@
         <v>321</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="C321" s="1">
         <v>45744</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="F321" s="6"/>
     </row>
@@ -8828,22 +8823,22 @@
         <v>322</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C322" s="1">
         <v>45745</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="H322" s="6"/>
     </row>
@@ -8852,19 +8847,19 @@
         <v>323</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="C323" s="1">
         <v>45746</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="G323" s="6"/>
     </row>
@@ -8873,19 +8868,19 @@
         <v>324</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="C324" s="1">
         <v>45747</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="G324" s="6"/>
     </row>
@@ -8894,19 +8889,19 @@
         <v>325</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="C325" s="1">
         <v>45748</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="G325" s="6"/>
     </row>
@@ -8915,22 +8910,22 @@
         <v>326</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="C326" s="1">
         <v>45749</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="H326" s="6"/>
     </row>
@@ -8939,22 +8934,22 @@
         <v>327</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="C327" s="1">
         <v>45750</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H327" s="6"/>
     </row>
@@ -8963,22 +8958,22 @@
         <v>328</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="C328" s="1">
         <v>45751</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H328" s="6"/>
     </row>
@@ -8987,22 +8982,22 @@
         <v>329</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="C329" s="1">
         <v>45752</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H329" s="6"/>
     </row>
@@ -9011,22 +9006,22 @@
         <v>330</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C330" s="1">
         <v>45753</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H330" s="6"/>
     </row>
@@ -9035,22 +9030,22 @@
         <v>331</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
       <c r="C331" s="1">
         <v>45754</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H331" s="6"/>
     </row>
@@ -9059,22 +9054,22 @@
         <v>332</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="C332" s="1">
         <v>45755</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H332" s="6"/>
     </row>
@@ -9083,22 +9078,22 @@
         <v>333</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="C333" s="1">
         <v>45756</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H333" s="6"/>
     </row>
@@ -9107,22 +9102,22 @@
         <v>334</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="C334" s="1">
         <v>45757</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H334" s="6"/>
     </row>
@@ -9131,22 +9126,22 @@
         <v>335</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="C335" s="1">
         <v>45758</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H335" s="6"/>
     </row>
@@ -9155,22 +9150,22 @@
         <v>336</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="C336" s="1">
         <v>45759</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H336" s="6"/>
     </row>
@@ -9179,22 +9174,22 @@
         <v>337</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="C337" s="1">
         <v>45760</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H337" s="6"/>
     </row>
@@ -9203,22 +9198,22 @@
         <v>338</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="C338" s="1">
         <v>45761</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="H338" s="6"/>
     </row>
@@ -9227,22 +9222,22 @@
         <v>339</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="C339" s="1">
         <v>45762</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="H339" s="6"/>
     </row>
@@ -9251,16 +9246,16 @@
         <v>340</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="C340" s="1">
         <v>45763</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="F340" s="6"/>
     </row>
@@ -9269,19 +9264,19 @@
         <v>341</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="C341" s="1">
         <v>45764</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G341" s="6"/>
     </row>
@@ -9290,19 +9285,19 @@
         <v>342</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="C342" s="1">
         <v>45765</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G342" s="6"/>
     </row>
@@ -9311,19 +9306,19 @@
         <v>343</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>496</v>
+        <v>454</v>
       </c>
       <c r="C343" s="1">
         <v>45766</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G343" s="6"/>
     </row>
@@ -9332,19 +9327,19 @@
         <v>344</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>497</v>
+        <v>455</v>
       </c>
       <c r="C344" s="1">
         <v>45767</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>492</v>
+        <v>450</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G344" s="6"/>
     </row>
@@ -9353,19 +9348,19 @@
         <v>345</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="C345" s="1">
         <v>45768</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="G345" s="6"/>
     </row>
@@ -9374,16 +9369,16 @@
         <v>346</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="C346" s="1">
         <v>45769</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F346" s="6"/>
     </row>
@@ -9392,16 +9387,16 @@
         <v>347</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="C347" s="1">
         <v>45770</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F347" s="6"/>
     </row>
@@ -9410,16 +9405,16 @@
         <v>348</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="C348" s="1">
         <v>45771</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="F348" s="6"/>
     </row>
@@ -9428,19 +9423,19 @@
         <v>349</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="C349" s="1">
         <v>45772</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>505</v>
+        <v>463</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G349" s="6"/>
     </row>
@@ -9449,19 +9444,19 @@
         <v>350</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="C350" s="1">
         <v>45773</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G350" s="6"/>
     </row>
@@ -9470,19 +9465,19 @@
         <v>351</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="C351" s="1">
         <v>45774</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G351" s="6"/>
     </row>
@@ -9491,19 +9486,19 @@
         <v>352</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="C352" s="1">
         <v>45775</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G352" s="6"/>
     </row>
@@ -9512,19 +9507,19 @@
         <v>353</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="C353" s="1">
         <v>45776</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="G353" s="6"/>
     </row>
@@ -9533,19 +9528,19 @@
         <v>354</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="C354" s="1">
         <v>45777</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>512</v>
+        <v>470</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="G354" s="6"/>
     </row>
@@ -9553,32 +9548,32 @@
       <c r="A355">
         <v>355</v>
       </c>
-      <c r="B355" s="12" t="s">
-        <v>515</v>
+      <c r="B355" s="10" t="s">
+        <v>473</v>
       </c>
       <c r="C355" s="1">
         <v>45778</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K355" s="6"/>
     </row>
@@ -9586,32 +9581,32 @@
       <c r="A356">
         <v>356</v>
       </c>
-      <c r="B356" s="12" t="s">
-        <v>523</v>
+      <c r="B356" s="10" t="s">
+        <v>481</v>
       </c>
       <c r="C356" s="1">
         <v>45779</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K356" s="6"/>
     </row>
@@ -9619,32 +9614,32 @@
       <c r="A357">
         <v>357</v>
       </c>
-      <c r="B357" s="12" t="s">
-        <v>524</v>
+      <c r="B357" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="C357" s="1">
         <v>45780</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K357" s="6"/>
     </row>
@@ -9652,32 +9647,32 @@
       <c r="A358">
         <v>358</v>
       </c>
-      <c r="B358" s="12" t="s">
-        <v>525</v>
+      <c r="B358" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="C358" s="1">
         <v>45781</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K358" s="6"/>
     </row>
@@ -9685,32 +9680,32 @@
       <c r="A359">
         <v>359</v>
       </c>
-      <c r="B359" s="12" t="s">
-        <v>526</v>
+      <c r="B359" s="10" t="s">
+        <v>484</v>
       </c>
       <c r="C359" s="1">
         <v>45782</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K359" s="6"/>
     </row>
@@ -9718,32 +9713,32 @@
       <c r="A360">
         <v>360</v>
       </c>
-      <c r="B360" s="12" t="s">
-        <v>527</v>
+      <c r="B360" s="10" t="s">
+        <v>485</v>
       </c>
       <c r="C360" s="1">
         <v>45783</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K360" s="6"/>
     </row>
@@ -9751,32 +9746,32 @@
       <c r="A361">
         <v>361</v>
       </c>
-      <c r="B361" s="12" t="s">
-        <v>528</v>
+      <c r="B361" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="C361" s="1">
         <v>45784</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K361" s="6"/>
     </row>
@@ -9784,32 +9779,32 @@
       <c r="A362">
         <v>362</v>
       </c>
-      <c r="B362" s="12" t="s">
-        <v>529</v>
+      <c r="B362" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="C362" s="1">
         <v>45785</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K362" s="6"/>
     </row>
@@ -9817,32 +9812,32 @@
       <c r="A363">
         <v>363</v>
       </c>
-      <c r="B363" s="12" t="s">
-        <v>530</v>
+      <c r="B363" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="C363" s="1">
         <v>45786</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K363" s="6"/>
     </row>
@@ -9850,32 +9845,32 @@
       <c r="A364">
         <v>364</v>
       </c>
-      <c r="B364" s="12" t="s">
-        <v>531</v>
+      <c r="B364" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="C364" s="1">
         <v>45787</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K364" s="6"/>
     </row>
@@ -9883,32 +9878,32 @@
       <c r="A365">
         <v>365</v>
       </c>
-      <c r="B365" s="12" t="s">
-        <v>532</v>
+      <c r="B365" s="10" t="s">
+        <v>490</v>
       </c>
       <c r="C365" s="1">
         <v>45788</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K365" s="6"/>
     </row>
@@ -10035,7 +10030,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E105" r:id="rId1"/>
+    <hyperlink ref="E105" r:id="rId1" display="https://www.youtube.com/watch?v=mBSKwuVUOfs&amp;pp=ygUkZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9i"/>
+    <hyperlink ref="E1" r:id="rId2" display="https://www.youtube.com/watch?v=F2KMYwBRngU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=1&amp;t=296s&amp;pp=iAQB"/>
+    <hyperlink ref="F1" r:id="rId3" display="https://www.youtube.com/watch?v=DmY9AHaOMEI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=2&amp;pp=iAQB"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://www.youtube.com/watch?v=XJVVDqQx3w0&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=3&amp;t=2s&amp;pp=iAQB"/>
+    <hyperlink ref="E18" r:id="rId5" display="https://www.youtube.com/watch?v=miPvZcX811M&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=4&amp;pp=iAQB"/>
+    <hyperlink ref="E27" r:id="rId6" display="https://www.youtube.com/watch?v=XFXTBYMFrYI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=5&amp;pp=iAQB"/>
+    <hyperlink ref="F27" r:id="rId7" display="https://www.youtube.com/watch?v=WCyTlWUthw4&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=6&amp;pp=iAQB"/>
+    <hyperlink ref="E33" r:id="rId8" display="https://www.youtube.com/watch?v=2Z-Hwn_OEpo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=7&amp;pp=iAQB"/>
+    <hyperlink ref="F33" r:id="rId9" display="https://www.youtube.com/watch?v=HZm6pk8cGZA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=8&amp;pp=iAQB"/>
+    <hyperlink ref="G37" r:id="rId10" display="https://www.youtube.com/watch?v=hQjB5nttZLw&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=25&amp;pp=iAQB"/>
+    <hyperlink ref="H37" r:id="rId11" display="https://www.youtube.com/watch?v=AcMqdZ564rk&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=26&amp;pp=iAQB"/>
+    <hyperlink ref="E40" r:id="rId12" display="https://www.youtube.com/watch?v=dCPYlU_XAfI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=13&amp;pp=iAQB"/>
+    <hyperlink ref="F40" r:id="rId13" display="https://www.youtube.com/watch?v=wlAcBE-3BlQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=14&amp;pp=iAQB"/>
+    <hyperlink ref="E41" r:id="rId14" display="https://www.youtube.com/watch?v=dCPYlU_XAfI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=13&amp;pp=iAQB"/>
+    <hyperlink ref="E44" r:id="rId15" display="https://www.youtube.com/watch?v=OEMr3lNzMDs&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=16&amp;pp=iAQB"/>
+    <hyperlink ref="F44" r:id="rId16" display="https://www.youtube.com/watch?v=uj6VvtIQBIU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=17&amp;pp=iAQB"/>
+    <hyperlink ref="E47" r:id="rId17" display="https://www.youtube.com/watch?v=Q9TObF2wTCQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=19&amp;pp=iAQB"/>
+    <hyperlink ref="F47" r:id="rId18" display="https://www.youtube.com/watch?v=zcPZWRPdsrQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=20&amp;pp=iAQB"/>
+    <hyperlink ref="E51" r:id="rId19" display="https://www.youtube.com/watch?v=EyVF6rrQAPE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=11&amp;pp=iAQB"/>
+    <hyperlink ref="F51" r:id="rId20" display="https://www.youtube.com/watch?v=iis8b_nCYyE&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=12&amp;pp=iAQB"/>
+    <hyperlink ref="E61" r:id="rId21" display="https://www.youtube.com/watch?v=lq7mT9Vo9Ls&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=15&amp;pp=iAQB"/>
+    <hyperlink ref="E63" r:id="rId22" display="https://www.youtube.com/watch?v=OpXQbCnMWgA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=9&amp;pp=iAQB"/>
+    <hyperlink ref="F63" r:id="rId23" display="https://www.youtube.com/watch?v=TiCXzATXLmo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=10&amp;pp=iAQB"/>
+    <hyperlink ref="E71" r:id="rId24" display="https://www.youtube.com/watch?v=2XCX__pCeOI&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=18&amp;pp=iAQB"/>
+    <hyperlink ref="E73" r:id="rId25" display="https://www.youtube.com/watch?v=kmUXH0_rQuQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=23&amp;pp=iAQB"/>
+    <hyperlink ref="F73" r:id="rId26" display="https://www.youtube.com/watch?v=NrW4pWjUzRQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=24&amp;pp=iAQB"/>
+    <hyperlink ref="E78" r:id="rId27" display="https://www.youtube.com/watch?v=0j0ovlLp4SU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=21&amp;pp=iAQB"/>
+    <hyperlink ref="F78" r:id="rId28" display="https://www.youtube.com/watch?v=iljyisQNcVM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=22&amp;pp=iAQB"/>
+    <hyperlink ref="E84" r:id="rId29" display="https://www.youtube.com/watch?v=d8dBDPa9uvQ&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=27&amp;pp=iAQB"/>
+    <hyperlink ref="F84" r:id="rId30" display="https://www.youtube.com/watch?v=qJyTe0NZNVY&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=28&amp;pp=iAQB"/>
+    <hyperlink ref="E88" r:id="rId31" display="https://www.youtube.com/watch?v=5jPlZjNwZhM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=30&amp;pp=iAQB"/>
+    <hyperlink ref="F88" r:id="rId32" display="https://www.youtube.com/watch?v=PtNC9c4jTBM&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=31&amp;pp=iAQB"/>
+    <hyperlink ref="E92" r:id="rId33" display="https://www.youtube.com/watch?v=5iyll9XfNKA&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=32&amp;pp=iAQB"/>
+    <hyperlink ref="E93" r:id="rId34" display="https://www.youtube.com/watch?v=3y7nN4TVX5Y&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=1&amp;pp=iAQB"/>
+    <hyperlink ref="F93" r:id="rId35" display="https://www.youtube.com/watch?v=TdKe0NNHWmY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=2&amp;pp=iAQB"/>
+    <hyperlink ref="G93" r:id="rId36" display="https://www.youtube.com/watch?v=3FQhzYaVk6k&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=3&amp;pp=iAQB"/>
+    <hyperlink ref="H93" r:id="rId37" display="https://www.youtube.com/watch?v=5DsSO1pM-fE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=4&amp;pp=iAQB"/>
+    <hyperlink ref="I93" r:id="rId38" display="https://www.youtube.com/watch?v=n2t1p7Zfm2s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=5&amp;pp=iAQB"/>
+    <hyperlink ref="J93" r:id="rId39" display="https://www.youtube.com/watch?v=K26US7y8TyQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=6&amp;pp=iAQB"/>
+    <hyperlink ref="K93" r:id="rId40" display="https://www.youtube.com/watch?v=Xk7vBiRlzeA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=7&amp;pp=iAQB"/>
+    <hyperlink ref="E100" r:id="rId41" display="https://www.youtube.com/watch?v=mBSKwuVUOfs&amp;pp=ygUkZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9i"/>
+    <hyperlink ref="F100" r:id="rId42" display="https://www.youtube.com/watch?v=XWcWYdo7hXA&amp;pp=ygUkZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9i"/>
+    <hyperlink ref="E118" r:id="rId43" display="https://www.youtube.com/watch?v=S5cEpDlOP9A&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz"/>
+    <hyperlink ref="F118" r:id="rId44" display="https://www.youtube.com/watch?v=jiNKP3GlPi4&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/scripts/e2j/verse-data.xlsx
+++ b/scripts/e2j/verse-data.xlsx
@@ -300,21 +300,9 @@
     <t>Josh</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OS7N6kQIOtI&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9zaHVh</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=O2GlEjf6B1k&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgam9zaHVh</t>
-  </si>
-  <si>
     <t>Judg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=iF-UsFYX1XM&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUganVkZ2Vz</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WHGbkXiN5Mk&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUganVkZ2Vz</t>
-  </si>
-  <si>
     <t>Ruth 1-4</t>
   </si>
   <si>
@@ -324,12 +312,6 @@
     <t>1 Sam</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=V-gozmcy3PM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=20&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ULLioZwvdEU&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=21&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>2 Sam</t>
   </si>
   <si>
@@ -402,27 +384,12 @@
     <t>1 Kings</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tjfEgekLD5s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=22&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kkj7q9vI3Zs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=23&amp;t=1510s&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Prov</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=O3rct6R2AA8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=33&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cj7XMIatkgc&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=34&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Sol</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YYtZ-gkQtFI&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=36&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 Kings 5-7</t>
   </si>
   <si>
@@ -432,9 +399,6 @@
     <t>Eccl</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mExfn1kAxLE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=35&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>1 Kings 12-15</t>
   </si>
   <si>
@@ -462,15 +426,9 @@
     <t>Jonah</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=g_UJOIgazU4&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=51&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>2 Kings, Amos</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9F_OBKkgj54&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=50&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Amos 4-6</t>
   </si>
   <si>
@@ -537,9 +495,6 @@
     <t>1 Chron</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=N-Y6TBUWoc0&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=24&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Psalms 42, 44</t>
   </si>
   <si>
@@ -573,30 +528,15 @@
     <t>Joel</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sSD9K55gxkM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=48&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GPsDmK7D55s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=49&amp;t=2217s&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Isa</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=XqNzGrYbFWg&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=37&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1VLLZ_6ZjiE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=38&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Hosea 1-4</t>
   </si>
   <si>
     <t>Hosea</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=S68kXnzI3xA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=47&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Hosea 5-8</t>
   </si>
   <si>
@@ -612,9 +552,6 @@
     <t>Micah</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=qhsA1DoYqBw&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=52&amp;t=13s&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Micah 4-7</t>
   </si>
   <si>
@@ -624,48 +561,24 @@
     <t>Nahum</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nPe0-YDFe1I&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=53&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Zeph</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=S_NEUA55I_U&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=55&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>2 Chron, Hab</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lGYkZtGoXvs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=54&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Jer</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7ziUDeb9RWM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=39&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IezUHoqpRcY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=40&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Jer, Lam</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eD4ruTpZ0qk&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=41&amp;t=872s&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Lam</t>
   </si>
   <si>
     <t>2 Chron, Dan</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Rln-zNby09U&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=45&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jMHt0qjS6OI&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=46&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Dan</t>
   </si>
   <si>
@@ -675,48 +588,21 @@
     <t>Ezek</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=xTzc8FoA4i0&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=42&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kciYe1lIYvs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=43&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Q7oE5xET8P8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=44&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>2 Chron, Ezra</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JS-c9qS8uA8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=25&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q0vg9-p-8E&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=26&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Hag</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nRrTR2XVwLQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=56&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Zech</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=QjWIXNOXOrg&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=57&amp;t=38s&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MVfylfuesZU&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=58&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Psalms 107, 126</t>
   </si>
   <si>
     <t>Esther</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_skPXjv4XZY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=27&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Esther 3-7</t>
   </si>
   <si>
@@ -735,31 +621,7 @@
     <t>Mal</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=csz6N5ZByJQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=59&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bUJxoINZW2Q&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=60&amp;pp=iAQB</t>
-  </si>
-  <si>
     <t>Rev</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nX0eQgmoouc&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=33&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C6OSefErEZo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=34&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1D7WoTS5vkU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=35&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Gt9Tjj4_Wok&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=36&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2ygj_W2JDMo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=37&amp;pp=iAQB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lXVzL3bNoT8&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=38&amp;pp=iAQB</t>
   </si>
   <si>
     <t>Matthew Lecture 1;https://www.youtube.com/watch?v=F2KMYwBRngU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=1&amp;t=296s&amp;pp=iAQB</t>
@@ -2394,6 +2256,144 @@
   </si>
   <si>
     <t>Deuteronomy 2;https://www.youtube.com/watch?v=D1edhZfYIpY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=15</t>
+  </si>
+  <si>
+    <t>Joshua 1;https://www.youtube.com/watch?v=OS7N6kQIOtI&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=16</t>
+  </si>
+  <si>
+    <t>Joshua 2;https://www.youtube.com/watch?v=O2GlEjf6B1k&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=17</t>
+  </si>
+  <si>
+    <t>Judges and Ruth 1;https://www.youtube.com/watch?v=iF-UsFYX1XM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=18</t>
+  </si>
+  <si>
+    <t>Judges and Ruth 2;https://www.youtube.com/watch?v=WHGbkXiN5Mk&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=19</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 Samuel 1;https://www.youtube.com/watch?v=V-gozmcy3PM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=20</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 Samuel 2;https://www.youtube.com/watch?v=ULLioZwvdEU&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=21</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 Kings 2;https://www.youtube.com/watch?v=kkj7q9vI3Zs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=23</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 Kings 1;https://www.youtube.com/watch?v=tjfEgekLD5s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=22</t>
+  </si>
+  <si>
+    <t>Proverbs 1;https://www.youtube.com/watch?v=O3rct6R2AA8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=33</t>
+  </si>
+  <si>
+    <t>Proverbs 2;https://www.youtube.com/watch?v=cj7XMIatkgc&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=34</t>
+  </si>
+  <si>
+    <t>Song of Songs;https://www.youtube.com/watch?v=YYtZ-gkQtFI&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=36</t>
+  </si>
+  <si>
+    <t>Ecclesiastes;https://www.youtube.com/watch?v=mExfn1kAxLE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=35</t>
+  </si>
+  <si>
+    <t>Jonah;https://www.youtube.com/watch?v=g_UJOIgazU4&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=51</t>
+  </si>
+  <si>
+    <t>Amos;https://www.youtube.com/watch?v=9F_OBKkgj54&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=50</t>
+  </si>
+  <si>
+    <t>1 &amp; 2 Chronicles;https://www.youtube.com/watch?v=N-Y6TBUWoc0&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=24</t>
+  </si>
+  <si>
+    <t>Obadiah and Joel 1;https://www.youtube.com/watch?v=sSD9K55gxkM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=48</t>
+  </si>
+  <si>
+    <t>Obadiah and Joel 2;https://www.youtube.com/watch?v=GPsDmK7D55s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=49</t>
+  </si>
+  <si>
+    <t>Isaiah 1;https://www.youtube.com/watch?v=XqNzGrYbFWg&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=37</t>
+  </si>
+  <si>
+    <t>Isaiah 2;https://www.youtube.com/watch?v=1VLLZ_6ZjiE&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=38</t>
+  </si>
+  <si>
+    <t>Hosea;https://www.youtube.com/watch?v=S68kXnzI3xA&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=47</t>
+  </si>
+  <si>
+    <t>Micah;https://www.youtube.com/watch?v=qhsA1DoYqBw&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=52</t>
+  </si>
+  <si>
+    <t>Nahum;https://www.youtube.com/watch?v=nPe0-YDFe1I&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=53</t>
+  </si>
+  <si>
+    <t>Zephaniah;https://www.youtube.com/watch?v=S_NEUA55I_U&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=55</t>
+  </si>
+  <si>
+    <t>Jeremiah 1;https://www.youtube.com/watch?v=7ziUDeb9RWM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=39</t>
+  </si>
+  <si>
+    <t>Jeremiah 2;https://www.youtube.com/watch?v=IezUHoqpRcY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=40</t>
+  </si>
+  <si>
+    <t>Habakkuk;https://www.youtube.com/watch?v=lGYkZtGoXvs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=54</t>
+  </si>
+  <si>
+    <t>Lamentations;https://www.youtube.com/watch?v=eD4ruTpZ0qk&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=41</t>
+  </si>
+  <si>
+    <t>Daniel 1;https://www.youtube.com/watch?v=Rln-zNby09U&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=45</t>
+  </si>
+  <si>
+    <t>Daniel 2;https://www.youtube.com/watch?v=jMHt0qjS6OI&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=46</t>
+  </si>
+  <si>
+    <t>Ezekiel 1;https://www.youtube.com/watch?v=xTzc8FoA4i0&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=42</t>
+  </si>
+  <si>
+    <t>Ezekiel 2;https://www.youtube.com/watch?v=kciYe1lIYvs&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=43</t>
+  </si>
+  <si>
+    <t>Ezekiel 3;https://www.youtube.com/watch?v=Q7oE5xET8P8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=44</t>
+  </si>
+  <si>
+    <t>Ezra and Nehemiah 1;https://www.youtube.com/watch?v=JS-c9qS8uA8&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=25</t>
+  </si>
+  <si>
+    <t>Ezra and Nehemiah 2;https://www.youtube.com/watch?v=9q0vg9-p-8E&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=26</t>
+  </si>
+  <si>
+    <t>Haggai;https://www.youtube.com/watch?v=nRrTR2XVwLQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=56</t>
+  </si>
+  <si>
+    <t>Zechariah 1;https://www.youtube.com/watch?v=QjWIXNOXOrg&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=57</t>
+  </si>
+  <si>
+    <t>Zechariah 2;https://www.youtube.com/watch?v=MVfylfuesZU&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=58</t>
+  </si>
+  <si>
+    <t>Esther;https://www.youtube.com/watch?v=_skPXjv4XZY&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=27</t>
+  </si>
+  <si>
+    <t>Malachi 1;https://www.youtube.com/watch?v=csz6N5ZByJQ&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=59</t>
+  </si>
+  <si>
+    <t>Malachi 2;https://www.youtube.com/watch?v=bUJxoINZW2Q&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=60</t>
+  </si>
+  <si>
+    <t>Revelation 1;https://www.youtube.com/watch?v=nX0eQgmoouc&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=33</t>
+  </si>
+  <si>
+    <t>Revelation 2;https://www.youtube.com/watch?v=C6OSefErEZo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=34</t>
+  </si>
+  <si>
+    <t>Revelation 3;https://www.youtube.com/watch?v=1D7WoTS5vkU&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=35</t>
+  </si>
+  <si>
+    <t>Revelation 4;https://www.youtube.com/watch?v=Gt9Tjj4_Wok&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=36</t>
+  </si>
+  <si>
+    <t>Revelation 5;https://www.youtube.com/watch?v=2ygj_W2JDMo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=37</t>
+  </si>
+  <si>
+    <t>Revelation 6;https://www.youtube.com/watch?v=2ygj_W2JDMo&amp;list=PLfk5IZQHKovK_7RzISco4nVgMvt0bqFUZ&amp;index=37</t>
   </si>
 </sst>
 </file>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G1" s="5"/>
       <c r="N1" s="7"/>
@@ -2802,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2844,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -2865,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -2886,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -2898,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1">
         <v>45430</v>
@@ -2907,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G7" s="5"/>
       <c r="N7" s="5"/>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1">
         <v>45431</v>
@@ -2929,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -2950,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2962,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1">
         <v>45433</v>
@@ -2971,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -2983,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1">
         <v>45434</v>
@@ -2992,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -3004,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="C12" s="1">
         <v>45435</v>
@@ -3013,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -3031,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -3049,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -3067,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -3085,7 +3085,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -3103,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -3121,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -3139,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -3157,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -3175,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -3193,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -3211,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -3229,7 +3229,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -3247,7 +3247,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F26" s="5"/>
     </row>
@@ -3283,10 +3283,10 @@
         <v>25</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -3304,10 +3304,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -3325,10 +3325,10 @@
         <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G29" s="5"/>
     </row>
@@ -3346,10 +3346,10 @@
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -3367,10 +3367,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G31" s="5"/>
     </row>
@@ -3388,10 +3388,10 @@
         <v>25</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G32" s="5"/>
     </row>
@@ -3409,10 +3409,10 @@
         <v>32</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -3430,10 +3430,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -3451,10 +3451,10 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G35" s="5"/>
     </row>
@@ -3472,10 +3472,10 @@
         <v>32</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -3493,16 +3493,16 @@
         <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="I37" s="5"/>
     </row>
@@ -3520,10 +3520,10 @@
         <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -3541,10 +3541,10 @@
         <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -3562,10 +3562,10 @@
         <v>42</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="G40" s="5"/>
     </row>
@@ -3583,10 +3583,10 @@
         <v>42</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="G41" s="5"/>
     </row>
@@ -3604,10 +3604,10 @@
         <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="G42" s="5"/>
     </row>
@@ -3625,10 +3625,10 @@
         <v>32</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G43" s="5"/>
     </row>
@@ -3646,10 +3646,10 @@
         <v>47</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="G44" s="5"/>
     </row>
@@ -3667,10 +3667,10 @@
         <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="G45" s="5"/>
     </row>
@@ -3688,10 +3688,10 @@
         <v>32</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G46" s="5"/>
     </row>
@@ -3709,10 +3709,10 @@
         <v>51</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="G47" s="5"/>
     </row>
@@ -3730,10 +3730,10 @@
         <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="G48" s="5"/>
     </row>
@@ -3751,10 +3751,10 @@
         <v>54</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -3763,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="C50" s="1">
         <v>45473</v>
@@ -3772,10 +3772,10 @@
         <v>32</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G50" s="5"/>
     </row>
@@ -3784,7 +3784,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C51" s="1">
         <v>45474</v>
@@ -3793,10 +3793,10 @@
         <v>55</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G51" s="5"/>
     </row>
@@ -3805,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="C52" s="1">
         <v>45475</v>
@@ -3814,10 +3814,10 @@
         <v>55</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -3826,7 +3826,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1">
         <v>45476</v>
@@ -3835,10 +3835,10 @@
         <v>55</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G53" s="5"/>
     </row>
@@ -3847,7 +3847,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C54" s="1">
         <v>45477</v>
@@ -3856,10 +3856,10 @@
         <v>55</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G54" s="5"/>
     </row>
@@ -3868,7 +3868,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1">
         <v>45478</v>
@@ -3877,10 +3877,10 @@
         <v>55</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -3889,7 +3889,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C56" s="1">
         <v>45479</v>
@@ -3898,10 +3898,10 @@
         <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G56" s="5"/>
     </row>
@@ -3910,7 +3910,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C57" s="1">
         <v>45480</v>
@@ -3919,10 +3919,10 @@
         <v>56</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G57" s="5"/>
     </row>
@@ -3931,7 +3931,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="C58" s="1">
         <v>45481</v>
@@ -3940,10 +3940,10 @@
         <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G58" s="5"/>
     </row>
@@ -3952,7 +3952,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="C59" s="1">
         <v>45482</v>
@@ -3961,10 +3961,10 @@
         <v>56</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G59" s="5"/>
     </row>
@@ -3973,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C60" s="1">
         <v>45483</v>
@@ -3982,10 +3982,10 @@
         <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G60" s="5"/>
     </row>
@@ -3994,7 +3994,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1">
         <v>45484</v>
@@ -4003,7 +4003,7 @@
         <v>57</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="F61" s="5"/>
     </row>
@@ -4012,7 +4012,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1">
         <v>45485</v>
@@ -4021,7 +4021,7 @@
         <v>57</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -4030,7 +4030,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1">
         <v>45486</v>
@@ -4039,10 +4039,10 @@
         <v>58</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G63" s="5"/>
     </row>
@@ -4051,7 +4051,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1">
         <v>45487</v>
@@ -4060,10 +4060,10 @@
         <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G64" s="5"/>
     </row>
@@ -4072,7 +4072,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C65" s="1">
         <v>45488</v>
@@ -4081,10 +4081,10 @@
         <v>58</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G65" s="5"/>
     </row>
@@ -4093,7 +4093,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C66" s="1">
         <v>45489</v>
@@ -4102,10 +4102,10 @@
         <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G66" s="5"/>
     </row>
@@ -4114,7 +4114,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C67" s="1">
         <v>45490</v>
@@ -4123,10 +4123,10 @@
         <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G67" s="5"/>
     </row>
@@ -4135,7 +4135,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="C68" s="1">
         <v>45491</v>
@@ -4144,10 +4144,10 @@
         <v>32</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G68" s="5"/>
     </row>
@@ -4156,7 +4156,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1">
         <v>45492</v>
@@ -4165,10 +4165,10 @@
         <v>32</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G69" s="5"/>
     </row>
@@ -4177,7 +4177,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="C70" s="1">
         <v>45493</v>
@@ -4186,10 +4186,10 @@
         <v>32</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G70" s="5"/>
     </row>
@@ -4198,7 +4198,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="C71" s="1">
         <v>45494</v>
@@ -4207,7 +4207,7 @@
         <v>59</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -4216,7 +4216,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1">
         <v>45495</v>
@@ -4225,7 +4225,7 @@
         <v>59</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="F72" s="5"/>
     </row>
@@ -4234,7 +4234,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="C73" s="1">
         <v>45496</v>
@@ -4243,10 +4243,10 @@
         <v>60</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G73" s="5"/>
     </row>
@@ -4255,7 +4255,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="C74" s="1">
         <v>45497</v>
@@ -4264,10 +4264,10 @@
         <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G74" s="5"/>
     </row>
@@ -4276,7 +4276,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="C75" s="1">
         <v>45498</v>
@@ -4285,10 +4285,10 @@
         <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G75" s="5"/>
     </row>
@@ -4297,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C76" s="1">
         <v>45499</v>
@@ -4306,10 +4306,10 @@
         <v>60</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G76" s="5"/>
     </row>
@@ -4318,7 +4318,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="C77" s="1">
         <v>45500</v>
@@ -4327,10 +4327,10 @@
         <v>60</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="G77" s="5"/>
     </row>
@@ -4348,10 +4348,10 @@
         <v>62</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G78" s="5"/>
     </row>
@@ -4369,10 +4369,10 @@
         <v>63</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="G79" s="5"/>
     </row>
@@ -4381,7 +4381,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C80" s="1">
         <v>45503</v>
@@ -4390,10 +4390,10 @@
         <v>64</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G80" s="5"/>
     </row>
@@ -4402,7 +4402,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="C81" s="1">
         <v>45504</v>
@@ -4411,10 +4411,10 @@
         <v>64</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G81" s="5"/>
     </row>
@@ -4423,7 +4423,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="C82" s="1">
         <v>45505</v>
@@ -4432,10 +4432,10 @@
         <v>65</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G82" s="5"/>
     </row>
@@ -4444,7 +4444,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C83" s="1">
         <v>45506</v>
@@ -4453,10 +4453,10 @@
         <v>65</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G83" s="5"/>
     </row>
@@ -4465,7 +4465,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="C84" s="1">
         <v>45507</v>
@@ -4474,10 +4474,10 @@
         <v>66</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="G84" s="5"/>
     </row>
@@ -4486,7 +4486,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="C85" s="1">
         <v>45508</v>
@@ -4495,10 +4495,10 @@
         <v>66</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="G85" s="5"/>
     </row>
@@ -4507,7 +4507,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="C86" s="1">
         <v>45509</v>
@@ -4516,10 +4516,10 @@
         <v>66</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="G86" s="5"/>
     </row>
@@ -4528,7 +4528,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="C87" s="1">
         <v>45510</v>
@@ -4537,10 +4537,10 @@
         <v>67</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="G87" s="5"/>
     </row>
@@ -4549,7 +4549,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1">
         <v>45511</v>
@@ -4558,10 +4558,10 @@
         <v>68</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G88" s="5"/>
     </row>
@@ -4579,10 +4579,10 @@
         <v>68</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G89" s="5"/>
     </row>
@@ -4600,10 +4600,10 @@
         <v>70</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G90" s="5"/>
     </row>
@@ -4621,10 +4621,10 @@
         <v>71</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="G91" s="5"/>
     </row>
@@ -4642,7 +4642,7 @@
         <v>72</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="F92" s="5"/>
     </row>
@@ -4651,7 +4651,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="C93" s="1">
         <v>45516</v>
@@ -4660,25 +4660,25 @@
         <v>73</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L93" s="5"/>
     </row>
@@ -4687,7 +4687,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="C94" s="1">
         <v>45517</v>
@@ -4696,25 +4696,25 @@
         <v>73</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L94" s="5"/>
     </row>
@@ -4723,7 +4723,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="C95" s="1">
         <v>45518</v>
@@ -4732,25 +4732,25 @@
         <v>73</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L95" s="5"/>
     </row>
@@ -4759,7 +4759,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="C96" s="1">
         <v>45519</v>
@@ -4768,25 +4768,25 @@
         <v>73</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L96" s="5"/>
     </row>
@@ -4795,7 +4795,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="C97" s="1">
         <v>45520</v>
@@ -4804,25 +4804,25 @@
         <v>73</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L97" s="5"/>
     </row>
@@ -4831,7 +4831,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="C98" s="1">
         <v>45521</v>
@@ -4840,25 +4840,25 @@
         <v>73</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L98" s="5"/>
     </row>
@@ -4867,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1">
         <v>45522</v>
@@ -4876,31 +4876,31 @@
         <v>74</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
@@ -4908,7 +4908,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1">
         <v>45523</v>
@@ -4917,10 +4917,10 @@
         <v>75</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G100" s="5"/>
     </row>
@@ -4929,7 +4929,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="C101" s="1">
         <v>45524</v>
@@ -4938,10 +4938,10 @@
         <v>75</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G101" s="5"/>
     </row>
@@ -4950,7 +4950,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="C102" s="1">
         <v>45525</v>
@@ -4959,10 +4959,10 @@
         <v>75</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G102" s="5"/>
     </row>
@@ -4971,7 +4971,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="C103" s="1">
         <v>45526</v>
@@ -4980,10 +4980,10 @@
         <v>75</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G103" s="5"/>
     </row>
@@ -4992,7 +4992,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C104" s="1">
         <v>45527</v>
@@ -5001,10 +5001,10 @@
         <v>75</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G104" s="5"/>
     </row>
@@ -5013,7 +5013,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="C105" s="1">
         <v>45528</v>
@@ -5022,10 +5022,10 @@
         <v>75</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G105" s="5"/>
     </row>
@@ -5034,7 +5034,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="C106" s="1">
         <v>45529</v>
@@ -5043,10 +5043,10 @@
         <v>75</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G106" s="5"/>
     </row>
@@ -5055,7 +5055,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C107" s="1">
         <v>45530</v>
@@ -5064,10 +5064,10 @@
         <v>75</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G107" s="5"/>
     </row>
@@ -5076,7 +5076,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1">
         <v>45531</v>
@@ -5085,10 +5085,10 @@
         <v>75</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G108" s="5"/>
     </row>
@@ -5097,7 +5097,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="C109" s="1">
         <v>45532</v>
@@ -5106,10 +5106,10 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G109" s="5"/>
     </row>
@@ -5118,7 +5118,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C110" s="1">
         <v>45533</v>
@@ -5127,25 +5127,25 @@
         <v>73</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -5154,7 +5154,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="C111" s="1">
         <v>45534</v>
@@ -5163,25 +5163,25 @@
         <v>73</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L111" s="5"/>
     </row>
@@ -5190,7 +5190,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="C112" s="1">
         <v>45535</v>
@@ -5199,25 +5199,25 @@
         <v>73</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L112" s="5"/>
     </row>
@@ -5226,7 +5226,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C113" s="1">
         <v>45536</v>
@@ -5235,25 +5235,25 @@
         <v>73</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L113" s="5"/>
     </row>
@@ -5262,7 +5262,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="C114" s="1">
         <v>45537</v>
@@ -5271,25 +5271,25 @@
         <v>73</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L114" s="5"/>
     </row>
@@ -5298,7 +5298,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="C115" s="1">
         <v>45538</v>
@@ -5307,25 +5307,25 @@
         <v>73</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L115" s="5"/>
     </row>
@@ -5334,7 +5334,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="C116" s="1">
         <v>45539</v>
@@ -5343,25 +5343,25 @@
         <v>73</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L116" s="5"/>
     </row>
@@ -5370,7 +5370,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="C117" s="1">
         <v>45540</v>
@@ -5379,25 +5379,25 @@
         <v>73</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="L117" s="5"/>
     </row>
@@ -5406,7 +5406,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="C118" s="1">
         <v>45541</v>
@@ -5415,10 +5415,10 @@
         <v>76</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G118" s="5"/>
     </row>
@@ -5427,7 +5427,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="C119" s="1">
         <v>45542</v>
@@ -5436,10 +5436,10 @@
         <v>76</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G119" s="5"/>
     </row>
@@ -5448,7 +5448,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="C120" s="1">
         <v>45543</v>
@@ -5457,10 +5457,10 @@
         <v>76</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G120" s="5"/>
     </row>
@@ -5469,7 +5469,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C121" s="1">
         <v>45544</v>
@@ -5478,10 +5478,10 @@
         <v>76</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G121" s="5"/>
     </row>
@@ -5490,7 +5490,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C122" s="1">
         <v>45545</v>
@@ -5499,10 +5499,10 @@
         <v>76</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G122" s="5"/>
     </row>
@@ -5511,7 +5511,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="C123" s="1">
         <v>45546</v>
@@ -5520,10 +5520,10 @@
         <v>76</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G123" s="5"/>
     </row>
@@ -5532,7 +5532,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C124" s="1">
         <v>45547</v>
@@ -5541,10 +5541,10 @@
         <v>76</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G124" s="5"/>
     </row>
@@ -5553,7 +5553,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="C125" s="1">
         <v>45548</v>
@@ -5562,10 +5562,10 @@
         <v>76</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G125" s="5"/>
     </row>
@@ -5574,7 +5574,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C126" s="1">
         <v>45549</v>
@@ -5583,10 +5583,10 @@
         <v>76</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G126" s="5"/>
     </row>
@@ -5595,7 +5595,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="C127" s="1">
         <v>45550</v>
@@ -5604,10 +5604,10 @@
         <v>76</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G127" s="5"/>
     </row>
@@ -5616,7 +5616,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="C128" s="1">
         <v>45551</v>
@@ -5625,16 +5625,16 @@
         <v>77</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="I128" s="5"/>
     </row>
@@ -5643,7 +5643,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="C129" s="1">
         <v>45552</v>
@@ -5652,10 +5652,10 @@
         <v>78</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G129" s="5"/>
     </row>
@@ -5664,7 +5664,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="C130" s="1">
         <v>45553</v>
@@ -5673,10 +5673,10 @@
         <v>78</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G130" s="5"/>
     </row>
@@ -5685,7 +5685,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C131" s="1">
         <v>45554</v>
@@ -5694,10 +5694,10 @@
         <v>78</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G131" s="5"/>
     </row>
@@ -5706,7 +5706,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="C132" s="1">
         <v>45555</v>
@@ -5715,10 +5715,10 @@
         <v>78</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G132" s="5"/>
     </row>
@@ -5727,7 +5727,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="C133" s="1">
         <v>45556</v>
@@ -5736,10 +5736,10 @@
         <v>78</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G133" s="5"/>
     </row>
@@ -5748,7 +5748,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="C134" s="1">
         <v>45557</v>
@@ -5757,10 +5757,10 @@
         <v>78</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G134" s="5"/>
     </row>
@@ -5769,7 +5769,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="C135" s="1">
         <v>45558</v>
@@ -5778,10 +5778,10 @@
         <v>78</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="G135" s="5"/>
     </row>
@@ -5790,7 +5790,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="C136" s="1">
         <v>45559</v>
@@ -5799,10 +5799,10 @@
         <v>79</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G136" s="5"/>
     </row>
@@ -5811,7 +5811,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C137" s="1">
         <v>45560</v>
@@ -5820,10 +5820,10 @@
         <v>79</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G137" s="5"/>
     </row>
@@ -5832,7 +5832,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="C138" s="1">
         <v>45561</v>
@@ -5841,10 +5841,10 @@
         <v>79</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G138" s="5"/>
     </row>
@@ -5853,7 +5853,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="C139" s="1">
         <v>45562</v>
@@ -5862,10 +5862,10 @@
         <v>79</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G139" s="5"/>
     </row>
@@ -5874,7 +5874,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="C140" s="1">
         <v>45563</v>
@@ -5883,10 +5883,10 @@
         <v>79</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G140" s="5"/>
     </row>
@@ -5895,7 +5895,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="C141" s="1">
         <v>45564</v>
@@ -5904,10 +5904,10 @@
         <v>79</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G141" s="5"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="C142" s="1">
         <v>45565</v>
@@ -5925,10 +5925,10 @@
         <v>79</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G142" s="5"/>
     </row>
@@ -5937,7 +5937,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="C143" s="1">
         <v>45566</v>
@@ -5946,10 +5946,10 @@
         <v>79</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G143" s="5"/>
     </row>
@@ -5958,7 +5958,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="C144" s="1">
         <v>45567</v>
@@ -5967,10 +5967,10 @@
         <v>79</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="G144" s="5"/>
     </row>
@@ -5979,7 +5979,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="C145" s="1">
         <v>45568</v>
@@ -5988,10 +5988,10 @@
         <v>80</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G145" s="5"/>
     </row>
@@ -6000,7 +6000,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C146" s="1">
         <v>45569</v>
@@ -6009,10 +6009,10 @@
         <v>80</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -6021,7 +6021,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="C147" s="1">
         <v>45570</v>
@@ -6030,10 +6030,10 @@
         <v>80</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G147" s="5"/>
     </row>
@@ -6042,7 +6042,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="C148" s="1">
         <v>45571</v>
@@ -6051,10 +6051,10 @@
         <v>80</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G148" s="5"/>
     </row>
@@ -6063,7 +6063,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="C149" s="1">
         <v>45572</v>
@@ -6072,10 +6072,10 @@
         <v>80</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G149" s="5"/>
     </row>
@@ -6084,7 +6084,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C150" s="1">
         <v>45573</v>
@@ -6093,10 +6093,10 @@
         <v>80</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G150" s="5"/>
     </row>
@@ -6105,7 +6105,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="C151" s="1">
         <v>45574</v>
@@ -6114,10 +6114,10 @@
         <v>80</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G151" s="5"/>
     </row>
@@ -6126,7 +6126,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C152" s="1">
         <v>45575</v>
@@ -6135,10 +6135,10 @@
         <v>80</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G152" s="5"/>
     </row>
@@ -6147,7 +6147,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="C153" s="1">
         <v>45576</v>
@@ -6156,16 +6156,16 @@
         <v>81</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="I153" s="5"/>
     </row>
@@ -6174,7 +6174,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C154" s="1">
         <v>45577</v>
@@ -6183,10 +6183,10 @@
         <v>82</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G154" s="5"/>
     </row>
@@ -6195,7 +6195,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="C155" s="1">
         <v>45578</v>
@@ -6204,10 +6204,10 @@
         <v>82</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G155" s="5"/>
     </row>
@@ -6216,7 +6216,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C156" s="1">
         <v>45579</v>
@@ -6225,10 +6225,10 @@
         <v>82</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G156" s="5"/>
     </row>
@@ -6237,7 +6237,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="C157" s="1">
         <v>45580</v>
@@ -6246,10 +6246,10 @@
         <v>82</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G157" s="5"/>
     </row>
@@ -6258,7 +6258,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C158" s="1">
         <v>45581</v>
@@ -6267,10 +6267,10 @@
         <v>82</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G158" s="5"/>
     </row>
@@ -6279,7 +6279,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C159" s="1">
         <v>45582</v>
@@ -6288,10 +6288,10 @@
         <v>82</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>487</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>84</v>
+        <v>488</v>
       </c>
       <c r="G159" s="5"/>
     </row>
@@ -6300,19 +6300,19 @@
         <v>160</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C160" s="1">
         <v>45583</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G160" s="5"/>
     </row>
@@ -6321,19 +6321,19 @@
         <v>161</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="C161" s="1">
         <v>45584</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G161" s="5"/>
     </row>
@@ -6342,19 +6342,19 @@
         <v>162</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C162" s="1">
         <v>45585</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G162" s="5"/>
     </row>
@@ -6363,19 +6363,19 @@
         <v>163</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="C163" s="1">
         <v>45586</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G163" s="5"/>
     </row>
@@ -6384,19 +6384,19 @@
         <v>164</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="C164" s="1">
         <v>45587</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G164" s="5"/>
     </row>
@@ -6405,19 +6405,19 @@
         <v>165</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C165" s="1">
         <v>45588</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>86</v>
+        <v>489</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="G165" s="5"/>
     </row>
@@ -6426,19 +6426,19 @@
         <v>166</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C166" s="1">
         <v>45589</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G166" s="5"/>
     </row>
@@ -6447,19 +6447,19 @@
         <v>167</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C167" s="1">
         <v>45590</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G167" s="5"/>
     </row>
@@ -6468,19 +6468,19 @@
         <v>168</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="C168" s="1">
         <v>45591</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G168" s="5"/>
     </row>
@@ -6489,19 +6489,19 @@
         <v>169</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="C169" s="1">
         <v>45592</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G169" s="5"/>
     </row>
@@ -6510,19 +6510,19 @@
         <v>170</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="C170" s="1">
         <v>45593</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G170" s="5"/>
     </row>
@@ -6531,25 +6531,25 @@
         <v>171</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="C171" s="1">
         <v>45594</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -6557,25 +6557,25 @@
         <v>172</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="C172" s="1">
         <v>45595</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -6583,25 +6583,25 @@
         <v>173</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C173" s="1">
         <v>45596</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -6609,25 +6609,25 @@
         <v>174</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="C174" s="1">
         <v>45597</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -6635,19 +6635,19 @@
         <v>175</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="C175" s="1">
         <v>45598</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G175" s="5"/>
     </row>
@@ -6656,19 +6656,19 @@
         <v>176</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C176" s="1">
         <v>45599</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G176" s="5"/>
     </row>
@@ -6677,19 +6677,19 @@
         <v>177</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="C177" s="1">
         <v>45600</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G177" s="5"/>
     </row>
@@ -6698,19 +6698,19 @@
         <v>178</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C178" s="1">
         <v>45601</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G178" s="5"/>
     </row>
@@ -6719,19 +6719,19 @@
         <v>179</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="C179" s="1">
         <v>45602</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G179" s="5"/>
     </row>
@@ -6740,25 +6740,25 @@
         <v>180</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="C180" s="1">
         <v>45603</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -6766,19 +6766,19 @@
         <v>181</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="C181" s="1">
         <v>45604</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G181" s="5"/>
     </row>
@@ -6787,25 +6787,25 @@
         <v>182</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C182" s="1">
         <v>45605</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -6813,19 +6813,19 @@
         <v>183</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="C183" s="1">
         <v>45606</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G183" s="5"/>
     </row>
@@ -6834,25 +6834,25 @@
         <v>184</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="C184" s="1">
         <v>45607</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
@@ -6860,25 +6860,25 @@
         <v>185</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="C185" s="1">
         <v>45608</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
@@ -6886,19 +6886,19 @@
         <v>186</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C186" s="1">
         <v>45609</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G186" s="5"/>
     </row>
@@ -6907,19 +6907,19 @@
         <v>187</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C187" s="1">
         <v>45610</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G187" s="5"/>
     </row>
@@ -6928,19 +6928,19 @@
         <v>188</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C188" s="1">
         <v>45611</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G188" s="5"/>
     </row>
@@ -6949,19 +6949,19 @@
         <v>189</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C189" s="1">
         <v>45612</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G189" s="5"/>
     </row>
@@ -6970,19 +6970,19 @@
         <v>190</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C190" s="1">
         <v>45613</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G190" s="5"/>
     </row>
@@ -6991,19 +6991,19 @@
         <v>191</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C191" s="1">
         <v>45614</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G191" s="5"/>
     </row>
@@ -7012,19 +7012,19 @@
         <v>192</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C192" s="1">
         <v>45615</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G192" s="5"/>
     </row>
@@ -7033,19 +7033,19 @@
         <v>193</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C193" s="1">
         <v>45616</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G193" s="5"/>
     </row>
@@ -7054,19 +7054,19 @@
         <v>194</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C194" s="1">
         <v>45617</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G194" s="5"/>
     </row>
@@ -7075,19 +7075,19 @@
         <v>195</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C195" s="1">
         <v>45618</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G195" s="5"/>
     </row>
@@ -7096,19 +7096,19 @@
         <v>196</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C196" s="1">
         <v>45619</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G196" s="5"/>
     </row>
@@ -7117,19 +7117,19 @@
         <v>197</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C197" s="1">
         <v>45620</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G197" s="5"/>
     </row>
@@ -7138,19 +7138,19 @@
         <v>198</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C198" s="1">
         <v>45621</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G198" s="5"/>
     </row>
@@ -7159,19 +7159,19 @@
         <v>199</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C199" s="1">
         <v>45622</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G199" s="5"/>
     </row>
@@ -7180,19 +7180,19 @@
         <v>200</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C200" s="1">
         <v>45623</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G200" s="5"/>
     </row>
@@ -7201,19 +7201,19 @@
         <v>201</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C201" s="1">
         <v>45624</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G201" s="5"/>
     </row>
@@ -7222,19 +7222,19 @@
         <v>202</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C202" s="1">
         <v>45625</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G202" s="5"/>
     </row>
@@ -7243,19 +7243,19 @@
         <v>203</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C203" s="1">
         <v>45626</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G203" s="5"/>
     </row>
@@ -7264,19 +7264,19 @@
         <v>204</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C204" s="1">
         <v>45627</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G204" s="5"/>
     </row>
@@ -7285,19 +7285,19 @@
         <v>205</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C205" s="1">
         <v>45628</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G205" s="5"/>
     </row>
@@ -7306,19 +7306,19 @@
         <v>206</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C206" s="1">
         <v>45629</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G206" s="5"/>
     </row>
@@ -7327,19 +7327,19 @@
         <v>207</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="C207" s="1">
         <v>45630</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G207" s="5"/>
     </row>
@@ -7348,19 +7348,19 @@
         <v>208</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="C208" s="1">
         <v>45631</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G208" s="5"/>
     </row>
@@ -7369,19 +7369,19 @@
         <v>209</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="C209" s="1">
         <v>45632</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G209" s="5"/>
     </row>
@@ -7390,19 +7390,19 @@
         <v>210</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="C210" s="1">
         <v>45633</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G210" s="5"/>
     </row>
@@ -7411,19 +7411,19 @@
         <v>211</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="C211" s="1">
         <v>45634</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G211" s="5"/>
     </row>
@@ -7432,19 +7432,19 @@
         <v>212</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="C212" s="1">
         <v>45635</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G212" s="5"/>
     </row>
@@ -7453,19 +7453,19 @@
         <v>213</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="C213" s="1">
         <v>45636</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G213" s="5"/>
     </row>
@@ -7474,19 +7474,19 @@
         <v>214</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="C214" s="1">
         <v>45637</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="G214" s="5"/>
     </row>
@@ -7495,16 +7495,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="C215" s="1">
         <v>45638</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="F215" s="5"/>
     </row>
@@ -7513,16 +7513,16 @@
         <v>216</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C216" s="1">
         <v>45639</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>123</v>
+        <v>497</v>
       </c>
       <c r="F216" s="5"/>
     </row>
@@ -7531,19 +7531,19 @@
         <v>217</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C217" s="1">
         <v>45640</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G217" s="5"/>
     </row>
@@ -7552,19 +7552,19 @@
         <v>218</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C218" s="1">
         <v>45641</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G218" s="5"/>
     </row>
@@ -7573,16 +7573,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="C219" s="1">
         <v>45642</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
       <c r="F219" s="5"/>
     </row>
@@ -7591,16 +7591,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C220" s="1">
         <v>45643</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
       <c r="F220" s="5"/>
     </row>
@@ -7609,16 +7609,16 @@
         <v>221</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C221" s="1">
         <v>45644</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
       <c r="F221" s="5"/>
     </row>
@@ -7627,19 +7627,19 @@
         <v>222</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C222" s="1">
         <v>45645</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G222" s="5"/>
     </row>
@@ -7648,19 +7648,19 @@
         <v>223</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C223" s="1">
         <v>45646</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G223" s="5"/>
     </row>
@@ -7669,19 +7669,19 @@
         <v>224</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C224" s="1">
         <v>45647</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G224" s="5"/>
     </row>
@@ -7690,19 +7690,19 @@
         <v>225</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C225" s="1">
         <v>45648</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G225" s="5"/>
     </row>
@@ -7711,19 +7711,19 @@
         <v>226</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C226" s="1">
         <v>45649</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G226" s="5"/>
     </row>
@@ -7732,19 +7732,19 @@
         <v>227</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C227" s="1">
         <v>45650</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G227" s="5"/>
     </row>
@@ -7753,19 +7753,19 @@
         <v>228</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C228" s="1">
         <v>45651</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G228" s="5"/>
     </row>
@@ -7774,16 +7774,16 @@
         <v>229</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C229" s="1">
         <v>45652</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>137</v>
+        <v>499</v>
       </c>
       <c r="F229" s="5"/>
     </row>
@@ -7792,22 +7792,22 @@
         <v>230</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="C230" s="1">
         <v>45653</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="H230" s="5"/>
     </row>
@@ -7816,16 +7816,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C231" s="1">
         <v>45654</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="F231" s="5"/>
     </row>
@@ -7834,16 +7834,16 @@
         <v>232</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C232" s="1">
         <v>45655</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="F232" s="5"/>
     </row>
@@ -7852,19 +7852,19 @@
         <v>233</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C233" s="1">
         <v>45656</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G233" s="5"/>
     </row>
@@ -7873,19 +7873,19 @@
         <v>234</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C234" s="1">
         <v>45657</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G234" s="5"/>
     </row>
@@ -7894,19 +7894,19 @@
         <v>235</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C235" s="1">
         <v>45658</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>118</v>
+        <v>493</v>
       </c>
       <c r="G235" s="5"/>
     </row>
@@ -7915,19 +7915,19 @@
         <v>236</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="C236" s="1">
         <v>45659</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G236" s="5"/>
     </row>
@@ -7936,19 +7936,19 @@
         <v>237</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C237" s="1">
         <v>45660</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G237" s="5"/>
     </row>
@@ -7957,19 +7957,19 @@
         <v>238</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C238" s="1">
         <v>45661</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G238" s="5"/>
     </row>
@@ -7978,19 +7978,19 @@
         <v>239</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C239" s="1">
         <v>45662</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G239" s="5"/>
     </row>
@@ -7999,19 +7999,19 @@
         <v>240</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C240" s="1">
         <v>45663</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G240" s="5"/>
     </row>
@@ -8020,19 +8020,19 @@
         <v>241</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C241" s="1">
         <v>45664</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G241" s="5"/>
     </row>
@@ -8041,19 +8041,19 @@
         <v>242</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C242" s="1">
         <v>45665</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G242" s="5"/>
     </row>
@@ -8062,19 +8062,19 @@
         <v>243</v>
       </c>
       <c r="B243" s="14" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C243" s="1">
         <v>45666</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G243" s="5"/>
     </row>
@@ -8083,19 +8083,19 @@
         <v>244</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C244" s="1">
         <v>45667</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G244" s="5"/>
     </row>
@@ -8104,19 +8104,19 @@
         <v>245</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C245" s="1">
         <v>45668</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G245" s="5"/>
     </row>
@@ -8125,19 +8125,19 @@
         <v>246</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C246" s="1">
         <v>45669</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E246" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G246" s="5"/>
     </row>
@@ -8146,19 +8146,19 @@
         <v>247</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C247" s="1">
         <v>45670</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G247" s="5"/>
     </row>
@@ -8167,19 +8167,19 @@
         <v>248</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C248" s="1">
         <v>45671</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G248" s="5"/>
     </row>
@@ -8188,19 +8188,19 @@
         <v>249</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C249" s="1">
         <v>45672</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E249" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G249" s="5"/>
     </row>
@@ -8209,19 +8209,19 @@
         <v>250</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C250" s="1">
         <v>45673</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G250" s="5"/>
     </row>
@@ -8230,19 +8230,19 @@
         <v>251</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C251" s="1">
         <v>45674</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G251" s="5"/>
     </row>
@@ -8251,16 +8251,16 @@
         <v>252</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="C252" s="1">
         <v>45675</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F252" s="5"/>
     </row>
@@ -8269,16 +8269,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="C253" s="1">
         <v>45676</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F253" s="5"/>
     </row>
@@ -8287,16 +8287,16 @@
         <v>254</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="C254" s="1">
         <v>45677</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F254" s="5"/>
     </row>
@@ -8305,16 +8305,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C255" s="1">
         <v>45678</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F255" s="5"/>
     </row>
@@ -8323,19 +8323,19 @@
         <v>256</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C256" s="1">
         <v>45679</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G256" s="5"/>
     </row>
@@ -8344,19 +8344,19 @@
         <v>257</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C257" s="1">
         <v>45680</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G257" s="5"/>
     </row>
@@ -8365,19 +8365,19 @@
         <v>258</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C258" s="1">
         <v>45681</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G258" s="5"/>
     </row>
@@ -8386,19 +8386,19 @@
         <v>259</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C259" s="1">
         <v>45682</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E259" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G259" s="5"/>
     </row>
@@ -8407,19 +8407,19 @@
         <v>260</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C260" s="1">
         <v>45683</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G260" s="5"/>
     </row>
@@ -8428,19 +8428,19 @@
         <v>261</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C261" s="1">
         <v>45684</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G261" s="5"/>
     </row>
@@ -8449,19 +8449,19 @@
         <v>262</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C262" s="1">
         <v>45685</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G262" s="5"/>
     </row>
@@ -8470,19 +8470,19 @@
         <v>263</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C263" s="1">
         <v>45686</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G263" s="5"/>
     </row>
@@ -8491,16 +8491,16 @@
         <v>264</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="C264" s="1">
         <v>45687</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F264" s="5"/>
     </row>
@@ -8509,16 +8509,16 @@
         <v>265</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="C265" s="1">
         <v>45688</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F265" s="5"/>
     </row>
@@ -8527,16 +8527,16 @@
         <v>266</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C266" s="1">
         <v>45689</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F266" s="5"/>
     </row>
@@ -8545,16 +8545,16 @@
         <v>267</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="C267" s="1">
         <v>45690</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F267" s="5"/>
     </row>
@@ -8563,16 +8563,16 @@
         <v>268</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="C268" s="1">
         <v>45691</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F268" s="5"/>
     </row>
@@ -8581,16 +8581,16 @@
         <v>269</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C269" s="1">
         <v>45692</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F269" s="5"/>
     </row>
@@ -8599,16 +8599,16 @@
         <v>270</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="C270" s="1">
         <v>45693</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F270" s="5"/>
     </row>
@@ -8617,16 +8617,16 @@
         <v>271</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C271" s="1">
         <v>45694</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F271" s="5"/>
     </row>
@@ -8635,16 +8635,16 @@
         <v>272</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="C272" s="1">
         <v>45695</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F272" s="5"/>
     </row>
@@ -8653,16 +8653,16 @@
         <v>273</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C273" s="1">
         <v>45696</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F273" s="5"/>
     </row>
@@ -8671,19 +8671,19 @@
         <v>274</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C274" s="1">
         <v>45697</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>174</v>
+        <v>502</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>175</v>
+        <v>503</v>
       </c>
       <c r="G274" s="5"/>
     </row>
@@ -8692,16 +8692,16 @@
         <v>275</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="C275" s="1">
         <v>45698</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F275" s="5"/>
     </row>
@@ -8710,19 +8710,19 @@
         <v>276</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C276" s="1">
         <v>45699</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G276" s="5"/>
     </row>
@@ -8731,16 +8731,16 @@
         <v>277</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="C277" s="1">
         <v>45700</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F277" s="5"/>
     </row>
@@ -8749,16 +8749,16 @@
         <v>278</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="C278" s="1">
         <v>45701</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F278" s="5"/>
     </row>
@@ -8767,16 +8767,16 @@
         <v>279</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C279" s="1">
         <v>45702</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F279" s="5"/>
     </row>
@@ -8785,19 +8785,19 @@
         <v>280</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="C280" s="1">
         <v>45703</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G280" s="5"/>
     </row>
@@ -8806,19 +8806,19 @@
         <v>281</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C281" s="1">
         <v>45704</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G281" s="5"/>
     </row>
@@ -8827,19 +8827,19 @@
         <v>282</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C282" s="1">
         <v>45705</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G282" s="5"/>
     </row>
@@ -8848,19 +8848,19 @@
         <v>283</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="C283" s="1">
         <v>45706</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G283" s="5"/>
     </row>
@@ -8869,19 +8869,19 @@
         <v>284</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C284" s="1">
         <v>45707</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G284" s="5"/>
     </row>
@@ -8890,19 +8890,19 @@
         <v>285</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="C285" s="1">
         <v>45708</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G285" s="5"/>
     </row>
@@ -8911,19 +8911,19 @@
         <v>286</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="C286" s="1">
         <v>45709</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G286" s="5"/>
     </row>
@@ -8932,19 +8932,19 @@
         <v>287</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C287" s="1">
         <v>45710</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G287" s="5"/>
     </row>
@@ -8953,19 +8953,19 @@
         <v>288</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="C288" s="1">
         <v>45711</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G288" s="5"/>
     </row>
@@ -8974,19 +8974,19 @@
         <v>289</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="C289" s="1">
         <v>45712</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G289" s="5"/>
     </row>
@@ -8995,19 +8995,19 @@
         <v>290</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="C290" s="1">
         <v>45713</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G290" s="5"/>
     </row>
@@ -9016,19 +9016,19 @@
         <v>291</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C291" s="1">
         <v>45714</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G291" s="5"/>
     </row>
@@ -9037,19 +9037,19 @@
         <v>292</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="C292" s="1">
         <v>45715</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G292" s="5"/>
     </row>
@@ -9058,19 +9058,19 @@
         <v>293</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="C293" s="1">
         <v>45716</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G293" s="5"/>
     </row>
@@ -9079,19 +9079,19 @@
         <v>294</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="C294" s="1">
         <v>45717</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="G294" s="5"/>
     </row>
@@ -9100,16 +9100,16 @@
         <v>295</v>
       </c>
       <c r="B295" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C295" s="1">
         <v>45718</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="F295" s="5"/>
     </row>
@@ -9118,16 +9118,16 @@
         <v>296</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C296" s="1">
         <v>45719</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="F296" s="5"/>
     </row>
@@ -9136,16 +9136,16 @@
         <v>297</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C297" s="1">
         <v>45720</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="F297" s="5"/>
     </row>
@@ -9154,16 +9154,16 @@
         <v>298</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C298" s="1">
         <v>45721</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="F298" s="5"/>
     </row>
@@ -9172,16 +9172,16 @@
         <v>299</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C299" s="1">
         <v>45722</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>187</v>
+        <v>507</v>
       </c>
       <c r="F299" s="5"/>
     </row>
@@ -9190,16 +9190,16 @@
         <v>300</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C300" s="1">
         <v>45723</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>187</v>
+        <v>507</v>
       </c>
       <c r="F300" s="5"/>
     </row>
@@ -9208,16 +9208,16 @@
         <v>301</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C301" s="1">
         <v>45724</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>191</v>
+        <v>508</v>
       </c>
       <c r="F301" s="5"/>
     </row>
@@ -9226,16 +9226,16 @@
         <v>302</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C302" s="1">
         <v>45725</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F302" s="5"/>
     </row>
@@ -9244,16 +9244,16 @@
         <v>303</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="C303" s="1">
         <v>45726</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>193</v>
+        <v>509</v>
       </c>
       <c r="F303" s="5"/>
     </row>
@@ -9262,19 +9262,19 @@
         <v>304</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="C304" s="1">
         <v>45727</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="G304" s="5"/>
     </row>
@@ -9283,19 +9283,19 @@
         <v>305</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="C305" s="1">
         <v>45728</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G305" s="5"/>
     </row>
@@ -9304,19 +9304,19 @@
         <v>306</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>461</v>
+        <v>415</v>
       </c>
       <c r="C306" s="1">
         <v>45729</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G306" s="5"/>
     </row>
@@ -9325,19 +9325,19 @@
         <v>307</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C307" s="1">
         <v>45730</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G307" s="5"/>
     </row>
@@ -9346,19 +9346,19 @@
         <v>308</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="C308" s="1">
         <v>45731</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G308" s="5"/>
     </row>
@@ -9367,19 +9367,19 @@
         <v>309</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="C309" s="1">
         <v>45732</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G309" s="5"/>
     </row>
@@ -9388,19 +9388,19 @@
         <v>310</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C310" s="1">
         <v>45733</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G310" s="5"/>
     </row>
@@ -9409,19 +9409,19 @@
         <v>311</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="C311" s="1">
         <v>45734</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G311" s="5"/>
     </row>
@@ -9430,19 +9430,19 @@
         <v>312</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="C312" s="1">
         <v>45735</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G312" s="5"/>
     </row>
@@ -9451,19 +9451,19 @@
         <v>313</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="C313" s="1">
         <v>45736</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G313" s="5"/>
     </row>
@@ -9472,19 +9472,19 @@
         <v>314</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="C314" s="1">
         <v>45737</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G314" s="5"/>
     </row>
@@ -9493,19 +9493,19 @@
         <v>315</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="C315" s="1">
         <v>45738</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G315" s="5"/>
     </row>
@@ -9514,19 +9514,19 @@
         <v>316</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="C316" s="1">
         <v>45739</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G316" s="5"/>
     </row>
@@ -9535,19 +9535,19 @@
         <v>317</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="C317" s="1">
         <v>45740</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G317" s="5"/>
     </row>
@@ -9556,19 +9556,19 @@
         <v>318</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="C318" s="1">
         <v>45741</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G318" s="5"/>
     </row>
@@ -9577,19 +9577,19 @@
         <v>319</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="C319" s="1">
         <v>45742</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G319" s="5"/>
     </row>
@@ -9598,22 +9598,22 @@
         <v>320</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="C320" s="1">
         <v>45743</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>198</v>
+        <v>511</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>200</v>
+        <v>513</v>
       </c>
       <c r="H320" s="5"/>
     </row>
@@ -9622,16 +9622,16 @@
         <v>321</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="C321" s="1">
         <v>45744</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>200</v>
+        <v>513</v>
       </c>
       <c r="F321" s="5"/>
     </row>
@@ -9640,22 +9640,22 @@
         <v>322</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="C322" s="1">
         <v>45745</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="H322" s="5"/>
     </row>
@@ -9664,19 +9664,19 @@
         <v>323</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="C323" s="1">
         <v>45746</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="G323" s="5"/>
     </row>
@@ -9685,19 +9685,19 @@
         <v>324</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C324" s="1">
         <v>45747</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="G324" s="5"/>
     </row>
@@ -9706,19 +9706,19 @@
         <v>325</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="C325" s="1">
         <v>45748</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="G325" s="5"/>
     </row>
@@ -9727,22 +9727,22 @@
         <v>326</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="C326" s="1">
         <v>45749</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="H326" s="5"/>
     </row>
@@ -9751,22 +9751,22 @@
         <v>327</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>482</v>
+        <v>436</v>
       </c>
       <c r="C327" s="1">
         <v>45750</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H327" s="5"/>
     </row>
@@ -9775,22 +9775,22 @@
         <v>328</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>483</v>
+        <v>437</v>
       </c>
       <c r="C328" s="1">
         <v>45751</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H328" s="5"/>
     </row>
@@ -9799,22 +9799,22 @@
         <v>329</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="C329" s="1">
         <v>45752</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H329" s="5"/>
     </row>
@@ -9823,22 +9823,22 @@
         <v>330</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C330" s="1">
         <v>45753</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H330" s="5"/>
     </row>
@@ -9847,22 +9847,22 @@
         <v>331</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="C331" s="1">
         <v>45754</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H331" s="5"/>
     </row>
@@ -9871,22 +9871,22 @@
         <v>332</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="C332" s="1">
         <v>45755</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H332" s="5"/>
     </row>
@@ -9895,22 +9895,22 @@
         <v>333</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
       <c r="C333" s="1">
         <v>45756</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H333" s="5"/>
     </row>
@@ -9919,22 +9919,22 @@
         <v>334</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
       <c r="C334" s="1">
         <v>45757</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H334" s="5"/>
     </row>
@@ -9943,22 +9943,22 @@
         <v>335</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="C335" s="1">
         <v>45758</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H335" s="5"/>
     </row>
@@ -9967,22 +9967,22 @@
         <v>336</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="C336" s="1">
         <v>45759</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H336" s="5"/>
     </row>
@@ -9991,22 +9991,22 @@
         <v>337</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="C337" s="1">
         <v>45760</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H337" s="5"/>
     </row>
@@ -10015,22 +10015,22 @@
         <v>338</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="C338" s="1">
         <v>45761</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>208</v>
+        <v>516</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>209</v>
+        <v>517</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>210</v>
+        <v>518</v>
       </c>
       <c r="H338" s="5"/>
     </row>
@@ -10039,22 +10039,22 @@
         <v>339</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="C339" s="1">
         <v>45762</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="H339" s="5"/>
     </row>
@@ -10063,16 +10063,16 @@
         <v>340</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="C340" s="1">
         <v>45763</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>215</v>
+        <v>521</v>
       </c>
       <c r="F340" s="5"/>
     </row>
@@ -10081,19 +10081,19 @@
         <v>341</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="C341" s="1">
         <v>45764</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>217</v>
+        <v>522</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="G341" s="5"/>
     </row>
@@ -10102,19 +10102,19 @@
         <v>342</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="C342" s="1">
         <v>45765</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>217</v>
+        <v>522</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="G342" s="5"/>
     </row>
@@ -10123,19 +10123,19 @@
         <v>343</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="C343" s="1">
         <v>45766</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>217</v>
+        <v>522</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="G343" s="5"/>
     </row>
@@ -10144,19 +10144,19 @@
         <v>344</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C344" s="1">
         <v>45767</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>217</v>
+        <v>522</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="G344" s="5"/>
     </row>
@@ -10165,19 +10165,19 @@
         <v>345</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C345" s="1">
         <v>45768</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="F345" s="9" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="G345" s="5"/>
     </row>
@@ -10186,16 +10186,16 @@
         <v>346</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="C346" s="1">
         <v>45769</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="F346" s="5"/>
     </row>
@@ -10204,16 +10204,16 @@
         <v>347</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C347" s="1">
         <v>45770</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="F347" s="5"/>
     </row>
@@ -10222,16 +10222,16 @@
         <v>348</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C348" s="1">
         <v>45771</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="F348" s="5"/>
     </row>
@@ -10240,19 +10240,19 @@
         <v>349</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C349" s="1">
         <v>45772</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="G349" s="5"/>
     </row>
@@ -10261,19 +10261,19 @@
         <v>350</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
       <c r="C350" s="1">
         <v>45773</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="G350" s="5"/>
     </row>
@@ -10282,19 +10282,19 @@
         <v>351</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="C351" s="1">
         <v>45774</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="G351" s="5"/>
     </row>
@@ -10303,19 +10303,19 @@
         <v>352</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
       <c r="C352" s="1">
         <v>45775</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="G352" s="5"/>
     </row>
@@ -10324,19 +10324,19 @@
         <v>353</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
       <c r="C353" s="1">
         <v>45776</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>213</v>
+        <v>520</v>
       </c>
       <c r="G353" s="5"/>
     </row>
@@ -10345,19 +10345,19 @@
         <v>354</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="C354" s="1">
         <v>45777</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>228</v>
+        <v>525</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>229</v>
+        <v>526</v>
       </c>
       <c r="G354" s="5"/>
     </row>
@@ -10366,31 +10366,31 @@
         <v>355</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="C355" s="1">
         <v>45778</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K355" s="5"/>
     </row>
@@ -10399,31 +10399,31 @@
         <v>356</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="C356" s="1">
         <v>45779</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K356" s="5"/>
     </row>
@@ -10432,31 +10432,31 @@
         <v>357</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="C357" s="1">
         <v>45780</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K357" s="5"/>
     </row>
@@ -10465,31 +10465,31 @@
         <v>358</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="C358" s="1">
         <v>45781</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K358" s="5"/>
     </row>
@@ -10498,31 +10498,31 @@
         <v>359</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="C359" s="1">
         <v>45782</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K359" s="5"/>
     </row>
@@ -10531,31 +10531,31 @@
         <v>360</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="C360" s="1">
         <v>45783</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K360" s="5"/>
     </row>
@@ -10564,31 +10564,31 @@
         <v>361</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="C361" s="1">
         <v>45784</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K361" s="5"/>
     </row>
@@ -10597,31 +10597,31 @@
         <v>362</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="C362" s="1">
         <v>45785</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K362" s="5"/>
     </row>
@@ -10630,31 +10630,31 @@
         <v>363</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="C363" s="1">
         <v>45786</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K363" s="5"/>
     </row>
@@ -10663,31 +10663,31 @@
         <v>364</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="C364" s="1">
         <v>45787</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K364" s="5"/>
     </row>
@@ -10696,31 +10696,31 @@
         <v>365</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="C365" s="1">
         <v>45788</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>231</v>
+        <v>527</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>233</v>
+        <v>529</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>234</v>
+        <v>530</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>236</v>
+        <v>532</v>
       </c>
       <c r="K365" s="5"/>
     </row>
@@ -10892,8 +10892,8 @@
     <hyperlink ref="E118" r:id="rId43" display="https://www.youtube.com/watch?v=S5cEpDlOP9A&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz"/>
     <hyperlink ref="F118" r:id="rId44" display="https://www.youtube.com/watch?v=jiNKP3GlPi4&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZXhvZHVz"/>
     <hyperlink ref="E128" r:id="rId45" display="https://www.youtube.com/watch?v=qB3QV713xm0&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
-    <hyperlink ref="E171" r:id="rId46"/>
-    <hyperlink ref="F171" r:id="rId47"/>
+    <hyperlink ref="E171" r:id="rId46" display="https://www.youtube.com/watch?v=V-gozmcy3PM&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=20&amp;pp=iAQB"/>
+    <hyperlink ref="F171" r:id="rId47" display="https://www.youtube.com/watch?v=ULLioZwvdEU&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=21&amp;pp=iAQB"/>
     <hyperlink ref="F128" r:id="rId48" display="https://www.youtube.com/watch?v=hQJNMgIHVKw&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="G171" r:id="rId49" display="https://www.youtube.com/watch?v=qB3QV713xm0&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="H171" r:id="rId50" display="https://www.youtube.com/watch?v=hQJNMgIHVKw&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
@@ -11001,7 +11001,7 @@
     <hyperlink ref="F262" r:id="rId152" display="https://www.youtube.com/watch?v=hQJNMgIHVKw&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="E263" r:id="rId153" display="https://www.youtube.com/watch?v=qB3QV713xm0&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="F263" r:id="rId154" display="https://www.youtube.com/watch?v=hQJNMgIHVKw&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
-    <hyperlink ref="E326" r:id="rId155"/>
+    <hyperlink ref="E326" r:id="rId155" display="https://www.youtube.com/watch?v=N-Y6TBUWoc0&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=24&amp;pp=iAQB"/>
     <hyperlink ref="F326" r:id="rId156" display="https://www.youtube.com/watch?v=qB3QV713xm0&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="G326" r:id="rId157" display="https://www.youtube.com/watch?v=hQJNMgIHVKw&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
     <hyperlink ref="E345" r:id="rId158" display="https://www.youtube.com/watch?v=qB3QV713xm0&amp;pp=ygUnZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgcHNhbG1z"/>
@@ -11010,8 +11010,9 @@
     <hyperlink ref="F136" r:id="rId161" display="https://www.youtube.com/watch?v=0L-qZWuTbR8&amp;pp=ygUoZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgbnVtYmVycw%3D%3D"/>
     <hyperlink ref="E145" r:id="rId162" display="https://www.youtube.com/watch?v=B-VsUBdfgPE&amp;t=833s&amp;pp=ygUsZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZGV1dGVyb25vbXk%3D"/>
     <hyperlink ref="F145" r:id="rId163" display="https://www.youtube.com/watch?v=D1edhZfYIpY&amp;pp=ygUsZGF2aWQgcGF3c29uIHVubG9ja2luZyB0aGUgYmlibGUgZGV1dGVyb25vbXk%3D"/>
+    <hyperlink ref="E206" r:id="rId164" display="https://www.youtube.com/watch?v=tjfEgekLD5s&amp;list=PLfk5IZQHKovKhMVo9ekMLvZk8vFV9RJvC&amp;index=22&amp;pp=iAQB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId164"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId165"/>
 </worksheet>
 </file>